--- a/SourceDataTables/FigS2a.xlsx
+++ b/SourceDataTables/FigS2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2a.xlsx
+++ b/SourceDataTables/FigS2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2a.xlsx
+++ b/SourceDataTables/FigS2a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +74,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.13120715428038071</v>
+        <v>-0.13235485288088161</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.31145461188739176</v>
+        <v>-0.31200449160066229</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.070685572921464421</v>
+        <v>-0.071756842618014544</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.62254088197258961</v>
+        <v>-0.62319303559175943</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.11448856028931985</v>
+        <v>0.11383172122651554</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.096819805256645075</v>
+        <v>0.096888547504007438</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.10511354832690792</v>
+        <v>-0.10492623556635683</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.37460057488156745</v>
+        <v>-0.37396806925941833</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.62593200698690787</v>
+        <v>-0.62511502101001637</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.62455654296725371</v>
+        <v>-0.62376620427320884</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.26405058611416082</v>
+        <v>0.26401527100963684</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.28372252015413407</v>
+        <v>0.28385743251451295</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.15078033240749825</v>
+        <v>0.15109201307525399</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.17130115283178549</v>
+        <v>-0.17059565591623518</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.47350912243636495</v>
+        <v>-0.4723339817216749</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.46835270516625366</v>
+        <v>-0.46717153774108094</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.66746429859122969</v>
+        <v>-0.66618147681270579</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.75241612458203111</v>
+        <v>-0.75110005039486649</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.48508468125301191</v>
+        <v>0.48469321494504258</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.39925329663519471</v>
+        <v>0.39946918687436206</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.065561765223541707</v>
+        <v>0.066329562900679623</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.32268440612290822</v>
+        <v>-0.32129081856644298</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.3109076045630238</v>
+        <v>-0.30954315432412749</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.54726843874349895</v>
+        <v>-0.54571058265458317</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.5922063408143392</v>
+        <v>-0.59041475623319151</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.69646364963552587</v>
+        <v>-0.69469755644337494</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.66773365749660984</v>
+        <v>0.667392751559435</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.32794431056429935</v>
+        <v>0.32813537663497766</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.080971220884510239</v>
+        <v>-0.08015898193015597</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.070618031023114036</v>
+        <v>-0.069828115586671319</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.36904062205276994</v>
+        <v>-0.36747266547662238</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.5209932374226609</v>
+        <v>-0.51911944106018293</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.51560415325958786</v>
+        <v>-0.51346425211374724</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.0774168678213678</v>
+        <v>1.0768476376486875</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.66984617911755795</v>
+        <v>0.66958543405212012</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.25116514493148495</v>
+        <v>0.25168430022182536</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.25536759143075394</v>
+        <v>0.25589545560265581</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.0987727716448253</v>
+        <v>-0.097582477649801283</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.25925566751184398</v>
+        <v>-0.25771271412796459</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.26688488089648504</v>
+        <v>-0.2653084322024532</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.0357116868403822</v>
+        <v>1.0351046049501216</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.6111201363046922</v>
+        <v>0.61131298857037786</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.61111819006518275</v>
+        <v>0.61129552786061203</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.26217601280121922</v>
+        <v>0.26277762344022099</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.044917437765123164</v>
+        <v>0.045606152638561138</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.9560221383978772</v>
+        <v>0.95571638887716115</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.95352003659788631</v>
+        <v>0.95320260123990297</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.23552706711568222</v>
+        <v>-0.23545376305950577</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.25512607154296807</v>
+        <v>-0.25480905090930428</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.54622070856388483</v>
+        <v>-0.5458093938901234</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.74994175345230252</v>
+        <v>-0.74964630265524745</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.47369428222400101</v>
+        <v>-0.47848293991764801</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.29608787615086657</v>
+        <v>0.29738816347713953</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.066359468763517629</v>
+        <v>0.067767002529015505</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.28434680412164515</v>
+        <v>-0.28276694387615842</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.5840531685692314</v>
+        <v>-0.58233710915494963</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.58347459553847236</v>
+        <v>-0.58180194861803725</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.83501829897460988</v>
+        <v>-0.83366021584450123</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.61483290788771161</v>
+        <v>0.61633626198493718</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.56915815439168638</v>
+        <v>0.57047251296864332</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.40428920192162421</v>
+        <v>0.4058525893552436</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.021108571111620511</v>
+        <v>0.022989814558545641</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-0.43555005381831646</v>
+        <v>-0.43324892932926456</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.43270018441139074</v>
+        <v>-0.43040619277153153</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.73593421184487195</v>
+        <v>-0.73366703277630196</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.85170706898589532</v>
+        <v>-0.84937006934996473</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.75507833462303764</v>
+        <v>0.75569322005735773</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.82515230392583094</v>
+        <v>0.82611934438955981</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.76866779333266178</v>
+        <v>0.7699579123812903</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.29859978421965222</v>
+        <v>0.30014675045247263</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-0.24131223375230004</v>
+        <v>-0.23916515157313653</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.24131369112491688</v>
+        <v>-0.23921042123396782</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-0.55878057977385343</v>
+        <v>-0.55592781455243523</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-0.71003545231350929</v>
+        <v>-0.70711005748488209</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.86343109661642337</v>
+        <v>-0.86078985637103334</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-0.95069913358146951</v>
+        <v>-0.94856969453159379</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1.2247274547875098</v>
+        <v>1.2247237023098778</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1.0481955306777559</v>
+        <v>1.0483406002951861</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.56381488849920269</v>
+        <v>0.56454166697437724</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.027756678651906376</v>
+        <v>-0.02620998483092709</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.029042174976852488</v>
+        <v>-0.027470450460301027</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.02840117497380383</v>
+        <v>0.03604173449056286</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-0.57067250943393688</v>
+        <v>-0.567823233133115</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-0.74394736736345346</v>
+        <v>-0.74100378005712109</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.79319777917941459</v>
+        <v>-0.79071635926043482</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.6025208900954258</v>
+        <v>1.6017595570330869</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1.4164585223576083</v>
+        <v>1.4157962956357131</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.90026654374922932</v>
+        <v>0.90030045990767837</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.30768284209842806</v>
+        <v>0.30854493787854953</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.30687647450756778</v>
+        <v>0.30778332600469971</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.12016637577790658</v>
+        <v>-0.11829263702862063</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.36700722837031075</v>
+        <v>-0.36462245525389836</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.51700334476090637</v>
+        <v>-0.51472810985111417</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.56102261788062935</v>
+        <v>-0.55874795666365595</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.57147634771459754</v>
+        <v>-0.56993489592145996</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.9454815329185573</v>
+        <v>1.9443798198031297</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.6969681013267748</v>
+        <v>1.696166371685883</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.1958787818898857</v>
+        <v>1.195197043853087</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.62947719718008366</v>
+        <v>0.62949379082062473</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.62832266812071114</v>
+        <v>0.62836492855739245</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.15949070944230345</v>
+        <v>0.16033231339578494</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.19819546203378946</v>
+        <v>-0.19685033084277848</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.34634307739971526</v>
+        <v>-0.34497521512449497</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.38177627529227814</v>
+        <v>-0.38028141568575846</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.41356737142400452</v>
+        <v>-0.412610218251865</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2.1310610796472185</v>
+        <v>2.1301815068582224</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.8486322449486574</v>
+        <v>1.8474532012193028</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.401537180459187</v>
+        <v>1.4003458230573578</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.8470810072810725</v>
+        <v>0.84635455017723416</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.84489923978701531</v>
+        <v>0.84416754771681535</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.36067739566208906</v>
+        <v>0.36044629437459169</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.023984269011433541</v>
+        <v>0.024261824698100593</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.15279715195839497</v>
+        <v>-0.1523694663182136</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.22807955631961124</v>
+        <v>-0.22784272688522689</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.34397452940432111</v>
+        <v>-0.34419961296371127</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.8420233790734672</v>
+        <v>1.840777680864907</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1.3968287820589871</v>
+        <v>1.3955761855305515</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.84589364684671309</v>
+        <v>0.84511891564828712</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.84113108656898028</v>
+        <v>0.8403380720468252</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.35516960168776573</v>
+        <v>0.35488376290571266</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.015017265968094785</v>
+        <v>0.015212193988568884</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.16178956115273452</v>
+        <v>-0.16145416859179113</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.23542678865686176</v>
+        <v>-0.23528017199559528</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.94995849757672224</v>
+        <v>0.94855983407053979</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.95077986779742296</v>
+        <v>0.94937717069853611</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.45415479366828426</v>
+        <v>0.45298603851877334</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.12499749890989761</v>
+        <v>0.12426875972309856</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.065577174915047109</v>
+        <v>-0.066222865460606101</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.23803261167062589</v>
+        <v>-0.23888631217232362</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.238935410899179</v>
+        <v>-0.23882031637324183</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.52743944095321194</v>
+        <v>-0.52730096283023187</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.25400018298553495</v>
+        <v>-0.25368273942888686</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.54564473218150167</v>
+        <v>-0.54522793583659279</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.7542175625392642</v>
+        <v>-0.75395935700780725</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.46131911593125152</v>
+        <v>-0.46614002185875086</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.29842651244780988</v>
+        <v>0.29975681511739366</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.065646868395646804</v>
+        <v>0.067077322720482474</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.28676923145425592</v>
+        <v>-0.28521025658490501</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.58836460508106381</v>
+        <v>-0.58669672436558451</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.58695485605808928</v>
+        <v>-0.58537638863144403</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.83439984992181893</v>
+        <v>-0.83318414172467214</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.62032658578058675</v>
+        <v>0.62183330420937299</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.5679960136162977</v>
+        <v>0.56934020220001857</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.40581978851869094</v>
+        <v>0.40743288622240414</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.01867237654454422</v>
+        <v>0.020568028047783633</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.44015408315460414</v>
+        <v>-0.43784481199719649</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.44153072356781509</v>
+        <v>-0.43926781181090008</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.74575378950969129</v>
+        <v>-0.74355673302163505</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.85911285174035446</v>
+        <v>-0.85690409281829572</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.7573370332247652</v>
+        <v>0.75801638632956714</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.82693024206482124</v>
+        <v>0.82795301919017783</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.77820026972892198</v>
+        <v>0.77952953641171874</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.30977065493646078</v>
+        <v>0.31133926400332296</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>-0.24254600402863524</v>
+        <v>-0.24039676809795038</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-0.25111885812983947</v>
+        <v>-0.24900918812902179</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.5736712717838548</v>
+        <v>-0.57083594245711577</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-0.72946683459466555</v>
+        <v>-0.72657992750046996</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-0.8744833309406731</v>
+        <v>-0.87190776720118368</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.95634073298480382</v>
+        <v>-0.95438036146401362</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>1.0282477926880864</v>
+        <v>1.027964616886295</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.2439787006382832</v>
+        <v>1.2439976413321414</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>1.0702965300390466</v>
+        <v>1.0704318148834937</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.58066041391543755</v>
+        <v>0.58137091600389057</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-0.024629528381980445</v>
+        <v>-0.023056799839469202</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-0.036601715077782739</v>
+        <v>-0.034988833391709426</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.01643584612373342</v>
+        <v>0.02412619183026048</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-0.59115980800741941</v>
+        <v>-0.58828011703806227</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-0.77043763334012083</v>
+        <v>-0.76748881946728942</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>-0.81857331247348231</v>
+        <v>-0.81615671579919724</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1.5302444855728676</v>
+        <v>1.5293222524421781</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1.6245580505072788</v>
+        <v>1.623745238861688</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.4279668503869625</v>
+        <v>1.42726698607395</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.90832459071947003</v>
+        <v>0.90834075759179356</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.31254511014980824</v>
+        <v>0.31342312003466705</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.30124055905281011</v>
+        <v>0.30219994336269829</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.12838870661045493</v>
+        <v>-0.12644018413533559</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.38569991875652526</v>
+        <v>-0.38323695858608131</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.553411318385305</v>
+        <v>-0.55105621814894001</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>-0.59663550771047691</v>
+        <v>-0.59435416027109034</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.60620013043887955</v>
+        <v>-0.60466244735074637</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1.9977085648512432</v>
+        <v>1.9967279852844675</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1.9560966664349408</v>
+        <v>1.9549395338338824</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.7002241119858972</v>
+        <v>1.699388593501082</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>1.1936007181078432</v>
+        <v>1.1928979095866135</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.62769296640166306</v>
+        <v>0.62771326673406158</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.62540081130550218</v>
+        <v>0.62546502952602456</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.15554243635850695</v>
+        <v>0.15641449931247967</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-0.20294111292653169</v>
+        <v>-0.20155794511474065</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.36342987617280542</v>
+        <v>-0.36199703339369593</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>-0.40550445350506392</v>
+        <v>-0.40396220712872638</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.44834127890943704</v>
+        <v>-0.44733844776417891</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2.2751050233844889</v>
+        <v>2.2745843386406701</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2.132156013901394</v>
+        <v>2.1312212862956175</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1.8457479443422706</v>
+        <v>1.8445311925694983</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1.3975379386062201</v>
+        <v>1.3963171657085029</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.8441445968594643</v>
+        <v>0.84340243665008852</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.83986508384555214</v>
+        <v>0.83911329204355178</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.35496807657203056</v>
+        <v>0.35471876814441788</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.017482894682459758</v>
+        <v>0.0177328059384005</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.1632587095450119</v>
+        <v>-0.16283465048007956</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.24287123108149322</v>
+        <v>-0.24261231736824695</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-0.36523625593776526</v>
+        <v>-0.36542567382580382</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>-0.45627336243237165</v>
+        <v>-0.45691814866929875</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>2.1223172343816028</v>
+        <v>2.1213059528242537</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1.8373186227547953</v>
+        <v>1.8360352013873724</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.3923211636002997</v>
+        <v>1.3910343223139872</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.83848808983400658</v>
+        <v>0.83767042565426952</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.83236624708639606</v>
+        <v>0.83153434563692119</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.34377592469949092</v>
+        <v>0.34344176840802282</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.0020543026054873161</v>
+        <v>0.0021983209643089275</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>-0.1772577330672501</v>
+        <v>-0.1769713946444875</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.25427731403706383</v>
+        <v>-0.25414612039468831</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>-0.36820102077798667</v>
+        <v>-0.36849702047305388</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-0.45160993233726099</v>
+        <v>-0.45232739819265116</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1.8602150976103151</v>
+        <v>1.8590105900670726</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1.4436821744938224</v>
+        <v>1.4423353684594702</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.93995973878618599</v>
+        <v>0.93850409110565614</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.93691315428947819</v>
+        <v>0.9354437823909687</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.4356562906312515</v>
+        <v>0.43441724426247541</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.10219120626000394</v>
+        <v>0.10137921790021666</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>-0.09113024047397511</v>
+        <v>-0.091843955411247541</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>-0.26086799080154188</v>
+        <v>-0.26174093136585602</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>-0.4267559588264071</v>
+        <v>-0.42795847588170194</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.51458840273567541</v>
+        <v>-0.51622276948288759</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.7886045377628688</v>
+        <v>1.7873337450973581</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1.4259584481738961</v>
+        <v>1.4245801644289677</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.94399986125841617</v>
+        <v>0.94252318585447226</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.94178559929491668</v>
+        <v>0.94029441049222251</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.46385304697538715</v>
+        <v>0.46198504339386998</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.10032500610314762</v>
+        <v>0.098481940742446497</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>-0.13090750243058735</v>
+        <v>-0.13272309132014953</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>-0.33268036862822142</v>
+        <v>-0.33448116871748429</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.52192413269915172</v>
+        <v>-0.52407789095849133</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1.3844306580690087</v>
+        <v>1.3833627160332937</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.96522709588159861</v>
+        <v>0.96363028759749803</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.96073193276741276</v>
+        <v>0.9591151914217716</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.49237088960379077</v>
+        <v>0.49039850779084299</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.10193643076661593</v>
+        <v>0.099287036711002336</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.14827063300433949</v>
+        <v>-0.15122893930457404</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>-0.36624688949084455</v>
+        <v>-0.36914396367904362</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-0.490661500622802</v>
+        <v>-0.49364885163715422</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.98395525941103279</v>
+        <v>0.98258867452523513</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.9764546401221913</v>
+        <v>0.97506504825051177</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.54551154538573021</v>
+        <v>0.5431712818513571</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.137614373414397</v>
+        <v>0.13475266739325412</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-0.14710521589021414</v>
+        <v>-0.15013620860958643</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-0.33814930176840075</v>
+        <v>-0.34158353872976743</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.16623029341229781</v>
+        <v>0.16325139740683547</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>-0.14161702286231165</v>
+        <v>-0.14509920040082036</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.39681146331066203</v>
+        <v>-0.39552434040043905</v>
       </c>
     </row>
     <row r="252">
@@ -2106,7 +2086,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>-0.40993384722247567</v>
+        <v>-0.40840945777501969</v>
       </c>
     </row>
     <row r="253">
@@ -2114,7 +2094,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-0.69105663459381861</v>
+        <v>-0.68981527981845403</v>
       </c>
     </row>
     <row r="254">
@@ -2122,7 +2102,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.45953673838793152</v>
+        <v>0.46232307701802317</v>
       </c>
     </row>
     <row r="255">
@@ -2130,7 +2110,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.16613441351531766</v>
+        <v>0.16873580885454492</v>
       </c>
     </row>
     <row r="256">
@@ -2138,7 +2118,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>-0.14101161388854067</v>
+        <v>-0.1382011958387816</v>
       </c>
     </row>
     <row r="257">
@@ -2146,7 +2126,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>-0.59396263505436386</v>
+        <v>-0.59123513797627414</v>
       </c>
     </row>
     <row r="258">
@@ -2154,7 +2134,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>-0.59441978669237749</v>
+        <v>-0.59183582578765814</v>
       </c>
     </row>
     <row r="259">
@@ -2162,7 +2142,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>-0.89572242337893049</v>
+        <v>-0.8933962487697541</v>
       </c>
     </row>
     <row r="260">
@@ -2170,7 +2150,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>0.77188179700797288</v>
+        <v>0.77461646455799948</v>
       </c>
     </row>
     <row r="261">
@@ -2178,7 +2158,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0.53433716529719122</v>
+        <v>0.53722337141185628</v>
       </c>
     </row>
     <row r="262">
@@ -2186,7 +2166,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.11001701431653788</v>
+        <v>0.11312880241181289</v>
       </c>
     </row>
     <row r="263">
@@ -2194,7 +2174,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>-0.44616502508585582</v>
+        <v>-0.44285454012229886</v>
       </c>
     </row>
     <row r="264">
@@ -2202,7 +2182,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>-0.44880519961786253</v>
+        <v>-0.44554352714811968</v>
       </c>
     </row>
     <row r="265">
@@ -2210,7 +2190,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-0.83026727869409445</v>
+        <v>-0.82679338080454934</v>
       </c>
     </row>
     <row r="266">
@@ -2218,7 +2198,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>-0.99287818060324295</v>
+        <v>-0.99008477843756981</v>
       </c>
     </row>
     <row r="267">
@@ -2226,7 +2206,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>1.0723721557767656</v>
+        <v>1.0745645562849739</v>
       </c>
     </row>
     <row r="268">
@@ -2234,7 +2214,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1.0806527861262061</v>
+        <v>1.0829941360423863</v>
       </c>
     </row>
     <row r="269">
@@ -2242,7 +2222,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.90211180641317756</v>
+        <v>0.9047401972364264</v>
       </c>
     </row>
     <row r="270">
@@ -2250,7 +2230,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.43507965374075974</v>
+        <v>0.43818441618679882</v>
       </c>
     </row>
     <row r="271">
@@ -2258,7 +2238,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>-0.16746974419570174</v>
+        <v>-0.16394097729433646</v>
       </c>
     </row>
     <row r="272">
@@ -2266,7 +2246,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>-0.17551517958324217</v>
+        <v>-0.1720594215117579</v>
       </c>
     </row>
     <row r="273">
@@ -2274,7 +2254,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.61867840713381106</v>
+        <v>-0.61471855352900429</v>
       </c>
     </row>
     <row r="274">
@@ -2282,7 +2262,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>-0.87892971217909488</v>
+        <v>-0.87518493645862439</v>
       </c>
     </row>
     <row r="275">
@@ -2290,7 +2270,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>-1.0725713884455053</v>
+        <v>-1.0694908921215438</v>
       </c>
     </row>
     <row r="276">
@@ -2298,7 +2278,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1.3754737638107863</v>
+        <v>1.3763140035222516</v>
       </c>
     </row>
     <row r="277">
@@ -2306,7 +2286,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1.4525088029520137</v>
+        <v>1.4537666286517579</v>
       </c>
     </row>
     <row r="278">
@@ -2314,7 +2294,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1.2702596412123128</v>
+        <v>1.2718390532988382</v>
       </c>
     </row>
     <row r="279">
@@ -2322,7 +2302,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.823955776627601</v>
+        <v>0.82583102003322728</v>
       </c>
     </row>
     <row r="280">
@@ -2330,7 +2310,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.1380675537533364</v>
+        <v>0.14084309311720547</v>
       </c>
     </row>
     <row r="281">
@@ -2338,7 +2318,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.10487171874997701</v>
+        <v>0.10765929544545445</v>
       </c>
     </row>
     <row r="282">
@@ -2346,7 +2326,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>-0.37697817824950286</v>
+        <v>-0.37349806293342763</v>
       </c>
     </row>
     <row r="283">
@@ -2354,7 +2334,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>-0.6837043384965118</v>
+        <v>-0.67977236975335376</v>
       </c>
     </row>
     <row r="284">
@@ -2362,7 +2342,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-0.92325921344312278</v>
+        <v>-0.91993276405304714</v>
       </c>
     </row>
     <row r="285">
@@ -2370,7 +2350,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>-0.96293132614561205</v>
+        <v>-0.95964063485063467</v>
       </c>
     </row>
     <row r="286">
@@ -2378,7 +2358,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1.822722128305287</v>
+        <v>1.8226519711286786</v>
       </c>
     </row>
     <row r="287">
@@ -2386,7 +2366,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1.8360090860338778</v>
+        <v>1.8358584288043527</v>
       </c>
     </row>
     <row r="288">
@@ -2394,7 +2374,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1.6167802554815272</v>
+        <v>1.6165449535411553</v>
       </c>
     </row>
     <row r="289">
@@ -2402,7 +2382,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>1.1209133951834886</v>
+        <v>1.1212534193814268</v>
       </c>
     </row>
     <row r="290">
@@ -2410,7 +2390,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>0.44437989500910841</v>
+        <v>0.44601036989297843</v>
       </c>
     </row>
     <row r="291">
@@ -2418,7 +2398,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.42497956717224228</v>
+        <v>0.42675493485172084</v>
       </c>
     </row>
     <row r="292">
@@ -2426,7 +2406,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>-0.13579367950537974</v>
+        <v>-0.13313068630758315</v>
       </c>
     </row>
     <row r="293">
@@ -2434,7 +2414,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-0.5277914676954395</v>
+        <v>-0.52462627195577505</v>
       </c>
     </row>
     <row r="294">
@@ -2442,7 +2422,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>-0.74101669273635173</v>
+        <v>-0.73813434176113002</v>
       </c>
     </row>
     <row r="295">
@@ -2450,7 +2430,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>-0.80075017324430475</v>
+        <v>-0.79786106082084873</v>
       </c>
     </row>
     <row r="296">
@@ -2458,7 +2438,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>-0.80224005198534232</v>
+        <v>-0.79964408336764636</v>
       </c>
     </row>
     <row r="297">
@@ -2466,7 +2446,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>2.1728529681847126</v>
+        <v>2.1723517340766456</v>
       </c>
     </row>
     <row r="298">
@@ -2474,7 +2454,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>2.1058180835796181</v>
+        <v>2.105016040841964</v>
       </c>
     </row>
     <row r="299">
@@ -2482,7 +2462,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.8535610274822596</v>
+        <v>1.8525751130542114</v>
       </c>
     </row>
     <row r="300">
@@ -2490,7 +2470,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1.3346682942784578</v>
+        <v>1.3338727472471683</v>
       </c>
     </row>
     <row r="301">
@@ -2498,7 +2478,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.6608028656785141</v>
+        <v>0.6606956982380312</v>
       </c>
     </row>
     <row r="302">
@@ -2506,7 +2486,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.65669289397239039</v>
+        <v>0.65662744777681814</v>
       </c>
     </row>
     <row r="303">
@@ -2514,7 +2494,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.047501434107866336</v>
+        <v>0.048792071375370068</v>
       </c>
     </row>
     <row r="304">
@@ -2522,7 +2502,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-0.43958805549405922</v>
+        <v>-0.43768554399739434</v>
       </c>
     </row>
     <row r="305">
@@ -2530,7 +2510,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>-0.60728666224340522</v>
+        <v>-0.60515373335191802</v>
       </c>
     </row>
     <row r="306">
@@ -2538,7 +2518,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-0.64079090437494579</v>
+        <v>-0.63847604586620477</v>
       </c>
     </row>
     <row r="307">
@@ -2546,7 +2526,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-0.6198595651242701</v>
+        <v>-0.61778538168962105</v>
       </c>
     </row>
     <row r="308">
@@ -2554,7 +2534,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>2.3609374696356773</v>
+        <v>2.3600914725124653</v>
       </c>
     </row>
     <row r="309">
@@ -2562,7 +2542,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>2.2561786261969625</v>
+        <v>2.2552175106656622</v>
       </c>
     </row>
     <row r="310">
@@ -2570,7 +2550,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>1.9602934060388433</v>
+        <v>1.9590052601628287</v>
       </c>
     </row>
     <row r="311">
@@ -2578,7 +2558,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>1.4754799732748034</v>
+        <v>1.4739278614919955</v>
       </c>
     </row>
     <row r="312">
@@ -2586,7 +2566,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.82252160001973074</v>
+        <v>0.82141990916451368</v>
       </c>
     </row>
     <row r="313">
@@ -2594,7 +2574,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.8149797221905174</v>
+        <v>0.81384707613289153</v>
       </c>
     </row>
     <row r="314">
@@ -2602,7 +2582,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.15218711824349448</v>
+        <v>0.15211434864876103</v>
       </c>
     </row>
     <row r="315">
@@ -2610,7 +2590,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-0.32852295224956007</v>
+        <v>-0.32793258281981685</v>
       </c>
     </row>
     <row r="316">
@@ -2618,7 +2598,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>-0.52180065613672899</v>
+        <v>-0.5206162091251646</v>
       </c>
     </row>
     <row r="317">
@@ -2626,7 +2606,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>-0.5484154426791259</v>
+        <v>-0.54723794781832502</v>
       </c>
     </row>
     <row r="318">
@@ -2634,7 +2614,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>-0.55157391172706904</v>
+        <v>-0.5505746556726161</v>
       </c>
     </row>
     <row r="319">
@@ -2642,7 +2622,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>-0.58083863158082183</v>
+        <v>-0.58050226399096716</v>
       </c>
     </row>
     <row r="320">
@@ -2650,7 +2630,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>2.3474130253189229</v>
+        <v>2.3464873824766008</v>
       </c>
     </row>
     <row r="321">
@@ -2658,7 +2638,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>2.2443702456600887</v>
+        <v>2.2433440142930174</v>
       </c>
     </row>
     <row r="322">
@@ -2666,7 +2646,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>1.948720669603911</v>
+        <v>1.9473648255713802</v>
       </c>
     </row>
     <row r="323">
@@ -2674,7 +2654,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>1.4694462917541493</v>
+        <v>1.4678236743939526</v>
       </c>
     </row>
     <row r="324">
@@ -2682,7 +2662,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>0.81491827098311675</v>
+        <v>0.8137202054513557</v>
       </c>
     </row>
     <row r="325">
@@ -2690,7 +2670,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.80436445026060133</v>
+        <v>0.80313824188715555</v>
       </c>
     </row>
     <row r="326">
@@ -2698,7 +2678,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>0.13501340256568484</v>
+        <v>0.13483819564495753</v>
       </c>
     </row>
     <row r="327">
@@ -2706,7 +2686,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>-0.34878959728448367</v>
+        <v>-0.34832968096842976</v>
       </c>
     </row>
     <row r="328">
@@ -2714,7 +2694,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>-0.53878999184396315</v>
+        <v>-0.53777048697987961</v>
       </c>
     </row>
     <row r="329">
@@ -2722,7 +2702,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>-0.55862012582208664</v>
+        <v>-0.55760747893283635</v>
       </c>
     </row>
     <row r="330">
@@ -2730,7 +2710,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-0.55065314856567649</v>
+        <v>-0.54977559981359825</v>
       </c>
     </row>
     <row r="331">
@@ -2738,7 +2718,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-0.57402005450994553</v>
+        <v>-0.57372816420111583</v>
       </c>
     </row>
     <row r="332">
@@ -2746,7 +2726,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>2.2194110919978303</v>
+        <v>2.2180661760087097</v>
       </c>
     </row>
     <row r="333">
@@ -2754,7 +2734,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>1.9207480804390438</v>
+        <v>1.9190771673411291</v>
       </c>
     </row>
     <row r="334">
@@ -2762,7 +2742,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>1.4392409008071638</v>
+        <v>1.4373319013934955</v>
       </c>
     </row>
     <row r="335">
@@ -2770,7 +2750,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>0.77555406668359872</v>
+        <v>0.77365309151812445</v>
       </c>
     </row>
     <row r="336">
@@ -2778,7 +2758,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.76445827803781574</v>
+        <v>0.76253341880144876</v>
       </c>
     </row>
     <row r="337">
@@ -2786,7 +2766,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.11622010797056904</v>
+        <v>0.11471872861525829</v>
       </c>
     </row>
     <row r="338">
@@ -2794,7 +2774,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>-0.30493077211086034</v>
+        <v>-0.30568945334796016</v>
       </c>
     </row>
     <row r="339">
@@ -2802,7 +2782,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>-0.51048145597472228</v>
+        <v>-0.51074650633921559</v>
       </c>
     </row>
     <row r="340">
@@ -2810,7 +2790,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>-0.61893875634859719</v>
+        <v>-0.61910713023385877</v>
       </c>
     </row>
     <row r="341">
@@ -2818,7 +2798,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>-0.6528742237762275</v>
+        <v>-0.65331133749399584</v>
       </c>
     </row>
     <row r="342">
@@ -2826,7 +2806,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>-0.65230567967020003</v>
+        <v>-0.65305903501996909</v>
       </c>
     </row>
     <row r="343">
@@ -2834,7 +2814,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>2.1171055631765001</v>
+        <v>2.1159463180680467</v>
       </c>
     </row>
     <row r="344">
@@ -2842,7 +2822,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>1.7916237404019639</v>
+        <v>1.7898826277865645</v>
       </c>
     </row>
     <row r="345">
@@ -2850,7 +2830,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>1.329780973519898</v>
+        <v>1.3277088716175105</v>
       </c>
     </row>
     <row r="346">
@@ -2858,7 +2838,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>0.67625356853923924</v>
+        <v>0.67400843092568996</v>
       </c>
     </row>
     <row r="347">
@@ -2866,7 +2846,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.66811333904299619</v>
+        <v>0.66585111694250576</v>
       </c>
     </row>
     <row r="348">
@@ -2874,7 +2854,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.064278193190855037</v>
+        <v>0.062098036652639167</v>
       </c>
     </row>
     <row r="349">
@@ -2882,7 +2862,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-0.38579303313028601</v>
+        <v>-0.38765799253241867</v>
       </c>
     </row>
     <row r="350">
@@ -2890,7 +2870,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-0.61770034731553991</v>
+        <v>-0.61941116613144021</v>
       </c>
     </row>
     <row r="351">
@@ -2898,7 +2878,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>-0.73292676758710407</v>
+        <v>-0.73433630844915376</v>
       </c>
     </row>
     <row r="352">
@@ -2906,7 +2886,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>-0.76756636785759558</v>
+        <v>-0.7690565108532198</v>
       </c>
     </row>
     <row r="353">
@@ -2914,7 +2894,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>-0.69744752475056038</v>
+        <v>-0.69917747058613411</v>
       </c>
     </row>
     <row r="354">
@@ -2922,7 +2902,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1.8813785525898663</v>
+        <v>1.8807640344828307</v>
       </c>
     </row>
     <row r="355">
@@ -2930,7 +2910,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1.6138337010067334</v>
+        <v>1.6126083218520033</v>
       </c>
     </row>
     <row r="356">
@@ -2938,7 +2918,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>1.1922914744606661</v>
+        <v>1.1903768693815282</v>
       </c>
     </row>
     <row r="357">
@@ -2946,7 +2926,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.62671258158325471</v>
+        <v>0.62434012326364696</v>
       </c>
     </row>
     <row r="358">
@@ -2954,7 +2934,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.61388364124387396</v>
+        <v>0.61148032776883077</v>
       </c>
     </row>
     <row r="359">
@@ -2962,7 +2942,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.016896108737033434</v>
+        <v>0.014109614206740667</v>
       </c>
     </row>
     <row r="360">
@@ -2970,7 +2950,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>-0.44067059382437285</v>
+        <v>-0.44346349782381561</v>
       </c>
     </row>
     <row r="361">
@@ -2978,7 +2958,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>-0.68261710964722788</v>
+        <v>-0.68532605646963207</v>
       </c>
     </row>
     <row r="362">
@@ -2986,7 +2966,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>-0.80999989602194122</v>
+        <v>-0.81268829514362884</v>
       </c>
     </row>
     <row r="363">
@@ -2994,7 +2974,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>-0.79360480660864674</v>
+        <v>-0.79607179462603705</v>
       </c>
     </row>
     <row r="364">
@@ -3002,7 +2982,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>-0.71284151521172412</v>
+        <v>-0.71539386896137303</v>
       </c>
     </row>
     <row r="365">
@@ -3010,7 +2990,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1.4390350087347299</v>
+        <v>1.4386074479869446</v>
       </c>
     </row>
     <row r="366">
@@ -3018,7 +2998,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>1.0284809728978355</v>
+        <v>1.0272125532218999</v>
       </c>
     </row>
     <row r="367">
@@ -3026,7 +3006,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>0.51313550374538086</v>
+        <v>0.51089437771288104</v>
       </c>
     </row>
     <row r="368">
@@ -3034,7 +3014,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.50056257896128031</v>
+        <v>0.49829724833505518</v>
       </c>
     </row>
     <row r="369">
@@ -3042,7 +3022,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>-0.038845175301643026</v>
+        <v>-0.041615968267576499</v>
       </c>
     </row>
     <row r="370">
@@ -3050,7 +3030,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>-0.44627739228966856</v>
+        <v>-0.4494320509848273</v>
       </c>
     </row>
     <row r="371">
@@ -3058,7 +3038,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>-0.71668362428320598</v>
+        <v>-0.71994253538070585</v>
       </c>
     </row>
     <row r="372">
@@ -3066,7 +3046,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>-0.83938688517890703</v>
+        <v>-0.84287279134619242</v>
       </c>
     </row>
     <row r="373">
@@ -3074,7 +3054,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>-0.82050806412488275</v>
+        <v>-0.82394852013951736</v>
       </c>
     </row>
     <row r="374">
@@ -3082,7 +3062,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.95055021232702652</v>
+        <v>0.94961852548475234</v>
       </c>
     </row>
     <row r="375">
@@ -3090,7 +3070,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.49717006284318271</v>
+        <v>0.49499210218234396</v>
       </c>
     </row>
     <row r="376">
@@ -3098,7 +3078,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>0.48389155759950531</v>
+        <v>0.48168848848763524</v>
       </c>
     </row>
     <row r="377">
@@ -3106,7 +3086,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>-0.040415877691087135</v>
+        <v>-0.043788067273885019</v>
       </c>
     </row>
     <row r="378">
@@ -3114,7 +3094,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>-0.46624599045651194</v>
+        <v>-0.47018400111557157</v>
       </c>
     </row>
     <row r="379">
@@ -3122,7 +3102,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>-0.68050281293418624</v>
+        <v>-0.68452898903024628</v>
       </c>
     </row>
     <row r="380">
@@ -3130,7 +3110,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>-0.82669825955860754</v>
+        <v>-0.83056460493491524</v>
       </c>
     </row>
     <row r="381">
@@ -3138,7 +3118,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>-0.84122709386449845</v>
+        <v>-0.84497945993845236</v>
       </c>
     </row>
     <row r="382">
@@ -3146,7 +3126,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.47698045618829371</v>
+        <v>0.47460926301132567</v>
       </c>
     </row>
     <row r="383">
@@ -3154,7 +3134,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.46541791832070933</v>
+        <v>0.46301670056099353</v>
       </c>
     </row>
     <row r="384">
@@ -3162,7 +3142,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>-0.030601475813162648</v>
+        <v>-0.034252861712915222</v>
       </c>
     </row>
     <row r="385">
@@ -3170,7 +3150,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>-0.41995476799039427</v>
+        <v>-0.42404898747985442</v>
       </c>
     </row>
     <row r="386">
@@ -3178,7 +3158,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>-0.70979999053167642</v>
+        <v>-0.71411238224804141</v>
       </c>
     </row>
     <row r="387">
@@ -3186,7 +3166,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>-0.82793199997046218</v>
+        <v>-0.83205636569141395</v>
       </c>
     </row>
     <row r="388">
@@ -3194,7 +3174,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.53358177122059736</v>
+        <v>0.53090532932644108</v>
       </c>
     </row>
     <row r="389">
@@ -3202,7 +3182,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.25279810604708575</v>
+        <v>0.25654912366787974</v>
       </c>
     </row>
     <row r="390">
@@ -3210,7 +3190,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>-0.10915682650548744</v>
+        <v>-0.10547392474944532</v>
       </c>
     </row>
     <row r="391">
@@ -3218,7 +3198,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>-0.56415803240297724</v>
+        <v>-0.56062882499380196</v>
       </c>
     </row>
     <row r="392">
@@ -3226,7 +3206,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>-0.56274017879295446</v>
+        <v>-0.55936274506189521</v>
       </c>
     </row>
     <row r="393">
@@ -3234,7 +3214,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.84224347172011282</v>
+        <v>0.84607115959224832</v>
       </c>
     </row>
     <row r="394">
@@ -3242,7 +3222,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.55077722428800979</v>
+        <v>0.5547172623936556</v>
       </c>
     </row>
     <row r="395">
@@ -3250,7 +3230,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.11336452392597464</v>
+        <v>0.11753467996965188</v>
       </c>
     </row>
     <row r="396">
@@ -3258,7 +3238,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>-0.41062214223191551</v>
+        <v>-0.4063926256808813</v>
       </c>
     </row>
     <row r="397">
@@ -3266,7 +3246,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>-0.41538136740644166</v>
+        <v>-0.4112265090926614</v>
       </c>
     </row>
     <row r="398">
@@ -3274,7 +3254,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>-0.84165365726275787</v>
+        <v>-0.83755173350156853</v>
       </c>
     </row>
     <row r="399">
@@ -3282,7 +3262,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>-1.0562628193770713</v>
+        <v>-1.0526660737284594</v>
       </c>
     </row>
     <row r="400">
@@ -3290,7 +3270,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>1.2837639805921721</v>
+        <v>1.287093564699392</v>
       </c>
     </row>
     <row r="401">
@@ -3298,7 +3278,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>1.1726540378840129</v>
+        <v>1.1762028477235187</v>
       </c>
     </row>
     <row r="402">
@@ -3306,7 +3286,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.88198106811174193</v>
+        <v>0.88587497245715985</v>
       </c>
     </row>
     <row r="403">
@@ -3314,7 +3294,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.45260730268554206</v>
+        <v>0.45662210585716878</v>
       </c>
     </row>
     <row r="404">
@@ -3322,7 +3302,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>-0.077170264960100765</v>
+        <v>-0.072584601352207165</v>
       </c>
     </row>
     <row r="405">
@@ -3330,7 +3310,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>-0.10275853391555516</v>
+        <v>-0.098232252710673831</v>
       </c>
     </row>
     <row r="406">
@@ -3338,7 +3318,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>-0.61438425259942031</v>
+        <v>-0.60957869951685728</v>
       </c>
     </row>
     <row r="407">
@@ -3346,7 +3326,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>-0.9529624664049493</v>
+        <v>-0.94859315065678129</v>
       </c>
     </row>
     <row r="408">
@@ -3354,7 +3334,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>-1.1001710443660084</v>
+        <v>-1.0961506076886305</v>
       </c>
     </row>
     <row r="409">
@@ -3362,7 +3342,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.6531796684086966</v>
+        <v>1.6552013280680353</v>
       </c>
     </row>
     <row r="410">
@@ -3370,7 +3350,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1.5879444197104333</v>
+        <v>1.5902940958738303</v>
       </c>
     </row>
     <row r="411">
@@ -3378,7 +3358,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>1.3469640430710783</v>
+        <v>1.3494859567306685</v>
       </c>
     </row>
     <row r="412">
@@ -3386,7 +3366,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>0.86562097979845398</v>
+        <v>0.86856692282769277</v>
       </c>
     </row>
     <row r="413">
@@ -3394,7 +3374,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.25187193230725979</v>
+        <v>0.25564375137959949</v>
       </c>
     </row>
     <row r="414">
@@ -3402,7 +3382,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.21677602300496282</v>
+        <v>0.22048850223502983</v>
       </c>
     </row>
     <row r="415">
@@ -3410,7 +3390,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>-0.38406811404507218</v>
+        <v>-0.37959482123980881</v>
       </c>
     </row>
     <row r="416">
@@ -3418,7 +3398,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>-0.80487718363425131</v>
+        <v>-0.80065549660391211</v>
       </c>
     </row>
     <row r="417">
@@ -3426,7 +3406,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>-1.0313946795364877</v>
+        <v>-1.0277480794656115</v>
       </c>
     </row>
     <row r="418">
@@ -3434,7 +3414,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>2.0286712504028279</v>
+        <v>2.029477496542222</v>
       </c>
     </row>
     <row r="419">
@@ -3442,7 +3422,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>1.966331128541408</v>
+        <v>1.9673069016793074</v>
       </c>
     </row>
     <row r="420">
@@ -3450,7 +3430,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>1.7184983926274782</v>
+        <v>1.7194023197263579</v>
       </c>
     </row>
     <row r="421">
@@ -3458,7 +3438,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>1.1900110609012813</v>
+        <v>1.1912445056100287</v>
       </c>
     </row>
     <row r="422">
@@ -3466,7 +3446,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>0.49846606541147526</v>
+        <v>0.50072516258815858</v>
       </c>
     </row>
     <row r="423">
@@ -3474,7 +3454,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.46778676750858117</v>
+        <v>0.47009332727993258</v>
       </c>
     </row>
     <row r="424">
@@ -3482,7 +3462,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>-0.2272649283620469</v>
+        <v>-0.22389605028657716</v>
       </c>
     </row>
     <row r="425">
@@ -3490,7 +3470,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>-0.71682385019672845</v>
+        <v>-0.71325667368422596</v>
       </c>
     </row>
     <row r="426">
@@ -3498,7 +3478,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>-0.94274466163465864</v>
+        <v>-0.93953546040736413</v>
       </c>
     </row>
     <row r="427">
@@ -3506,7 +3486,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>-0.97571080726916593</v>
+        <v>-0.9722986442213809</v>
       </c>
     </row>
     <row r="428">
@@ -3514,7 +3494,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>2.2909249511647967</v>
+        <v>2.2905691385512816</v>
       </c>
     </row>
     <row r="429">
@@ -3522,7 +3502,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>2.2265181686746462</v>
+        <v>2.2262236339955246</v>
       </c>
     </row>
     <row r="430">
@@ -3530,7 +3510,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>1.9278643687435695</v>
+        <v>1.9273243386607413</v>
       </c>
     </row>
     <row r="431">
@@ -3538,7 +3518,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>1.3801846520127918</v>
+        <v>1.3797832055983239</v>
       </c>
     </row>
     <row r="432">
@@ -3546,7 +3526,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.62178604284135475</v>
+        <v>0.6222844677440138</v>
       </c>
     </row>
     <row r="433">
@@ -3554,7 +3534,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.60559884122308183</v>
+        <v>0.6060741592329435</v>
       </c>
     </row>
     <row r="434">
@@ -3562,7 +3542,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>-0.16375389062351511</v>
+        <v>-0.16189094318870578</v>
       </c>
     </row>
     <row r="435">
@@ -3570,7 +3550,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>-0.69079004897441121</v>
+        <v>-0.68845958044336242</v>
       </c>
     </row>
     <row r="436">
@@ -3578,7 +3558,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>-0.87140376012911103</v>
+        <v>-0.86882283562677265</v>
       </c>
     </row>
     <row r="437">
@@ -3586,7 +3566,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>-0.8603773705761486</v>
+        <v>-0.85737152217272139</v>
       </c>
     </row>
     <row r="438">
@@ -3594,7 +3574,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>-0.70324762651654982</v>
+        <v>-0.70026512894740112</v>
       </c>
     </row>
     <row r="439">
@@ -3602,7 +3582,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>2.404182586306074</v>
+        <v>2.403335627333651</v>
       </c>
     </row>
     <row r="440">
@@ -3610,7 +3590,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>2.3140433669905347</v>
+        <v>2.3131823527759647</v>
       </c>
     </row>
     <row r="441">
@@ -3618,7 +3598,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>1.9945310797220157</v>
+        <v>1.9934758959259038</v>
       </c>
     </row>
     <row r="442">
@@ -3626,7 +3606,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>1.4565910277371894</v>
+        <v>1.4550721467891623</v>
       </c>
     </row>
     <row r="443">
@@ -3634,7 +3614,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>0.66602389395017247</v>
+        <v>0.66516076571141558</v>
       </c>
     </row>
     <row r="444">
@@ -3642,7 +3622,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>0.64566498183962728</v>
+        <v>0.64475357873060501</v>
       </c>
     </row>
     <row r="445">
@@ -3650,7 +3630,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>-0.17470958182174762</v>
+        <v>-0.17446203727366855</v>
       </c>
     </row>
     <row r="446">
@@ -3658,7 +3638,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>-0.72132607678938121</v>
+        <v>-0.72038366043746627</v>
       </c>
     </row>
     <row r="447">
@@ -3666,7 +3646,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>-0.88370608189485289</v>
+        <v>-0.88214621538223481</v>
       </c>
     </row>
     <row r="448">
@@ -3674,7 +3654,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>-0.85187020690149517</v>
+        <v>-0.84990973060398667</v>
       </c>
     </row>
     <row r="449">
@@ -3682,7 +3662,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>-0.71414996887692994</v>
+        <v>-0.71211422414718639</v>
       </c>
     </row>
     <row r="450">
@@ -3690,7 +3670,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>2.3842495309419154</v>
+        <v>2.3833331118490872</v>
       </c>
     </row>
     <row r="451">
@@ -3698,7 +3678,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>2.2949613320859013</v>
+        <v>2.2940211333448608</v>
       </c>
     </row>
     <row r="452">
@@ -3706,7 +3686,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>1.9775160631315942</v>
+        <v>1.976389521550415</v>
       </c>
     </row>
     <row r="453">
@@ -3714,7 +3694,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>1.4369658027069725</v>
+        <v>1.4353581096189025</v>
       </c>
     </row>
     <row r="454">
@@ -3722,7 +3702,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>0.64113079766517855</v>
+        <v>0.64015621742046525</v>
       </c>
     </row>
     <row r="455">
@@ -3730,7 +3710,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>0.61566071639750475</v>
+        <v>0.61462879201103515</v>
       </c>
     </row>
     <row r="456">
@@ -3738,7 +3718,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>-0.20108728428210351</v>
+        <v>-0.20093881375767031</v>
       </c>
     </row>
     <row r="457">
@@ -3746,7 +3726,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>-0.74312465090138713</v>
+        <v>-0.74229905726752288</v>
       </c>
     </row>
     <row r="458">
@@ -3754,7 +3734,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>-0.90017579248878887</v>
+        <v>-0.89875540295648193</v>
       </c>
     </row>
     <row r="459">
@@ -3762,7 +3742,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>-0.86357911446000013</v>
+        <v>-0.86177214831912963</v>
       </c>
     </row>
     <row r="460">
@@ -3770,7 +3750,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>-0.7233212444895939</v>
+        <v>-0.72139486099752481</v>
       </c>
     </row>
     <row r="461">
@@ -3778,7 +3758,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>-0.6896294017468757</v>
+        <v>-0.68809984428288584</v>
       </c>
     </row>
     <row r="462">
@@ -3786,7 +3766,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>2.3668621987866243</v>
+        <v>2.3657122221726739</v>
       </c>
     </row>
     <row r="463">
@@ -3794,7 +3774,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>2.2134707721417417</v>
+        <v>2.2122499330245264</v>
       </c>
     </row>
     <row r="464">
@@ -3802,7 +3782,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>1.8717315033579112</v>
+        <v>1.8701722363895636</v>
       </c>
     </row>
     <row r="465">
@@ -3810,7 +3790,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>1.2934088630386538</v>
+        <v>1.2916325514159914</v>
       </c>
     </row>
     <row r="466">
@@ -3818,7 +3798,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.50760826024640471</v>
+        <v>0.50591033822666276</v>
       </c>
     </row>
     <row r="467">
@@ -3826,7 +3806,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.4866602472823453</v>
+        <v>0.48491987402464509</v>
       </c>
     </row>
     <row r="468">
@@ -3834,7 +3814,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>-0.28500690859032601</v>
+        <v>-0.28608812666483435</v>
       </c>
     </row>
     <row r="469">
@@ -3842,7 +3822,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>-0.80450762583991964</v>
+        <v>-0.80507897876471113</v>
       </c>
     </row>
     <row r="470">
@@ -3850,7 +3830,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>-0.98920617579865244</v>
+        <v>-0.98921814605217007</v>
       </c>
     </row>
     <row r="471">
@@ -3858,7 +3838,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>-0.96821200993366163</v>
+        <v>-0.96774267706362993</v>
       </c>
     </row>
     <row r="472">
@@ -3866,7 +3846,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>-0.88112997317977981</v>
+        <v>-0.88047895806184451</v>
       </c>
     </row>
     <row r="473">
@@ -3874,7 +3854,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>-0.78144906962237592</v>
+        <v>-0.78113293860553068</v>
       </c>
     </row>
     <row r="474">
@@ -3882,7 +3862,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>2.0225575671478606</v>
+        <v>2.0212661977829707</v>
       </c>
     </row>
     <row r="475">
@@ -3890,7 +3870,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>1.6472622791963685</v>
+        <v>1.6454368569979612</v>
       </c>
     </row>
     <row r="476">
@@ -3898,7 +3878,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>1.5094227609379307</v>
+        <v>1.505979899111936</v>
       </c>
     </row>
     <row r="477">
@@ -3906,7 +3886,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>0.33816048705200924</v>
+        <v>0.33611795210960516</v>
       </c>
     </row>
     <row r="478">
@@ -3914,7 +3894,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.32472694966448024</v>
+        <v>0.32265194221856797</v>
       </c>
     </row>
     <row r="479">
@@ -3922,7 +3902,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>-0.40591798833458537</v>
+        <v>-0.4078473605460845</v>
       </c>
     </row>
     <row r="480">
@@ -3930,7 +3910,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>-0.92936512160959506</v>
+        <v>-0.93107459233395118</v>
       </c>
     </row>
     <row r="481">
@@ -3938,7 +3918,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>-1.1113064578325944</v>
+        <v>-1.1127216736752044</v>
       </c>
     </row>
     <row r="482">
@@ -3946,7 +3926,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>-1.1169368475908128</v>
+        <v>-1.1179025183807889</v>
       </c>
     </row>
     <row r="483">
@@ -3954,7 +3934,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>-1.0340026271885956</v>
+        <v>-1.0347319882476469</v>
       </c>
     </row>
     <row r="484">
@@ -3962,7 +3942,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>-0.82010030574299597</v>
+        <v>-0.82078513668958386</v>
       </c>
     </row>
     <row r="485">
@@ -3970,7 +3950,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>1.7017886221923002</v>
+        <v>1.7007023827223766</v>
       </c>
     </row>
     <row r="486">
@@ -3978,7 +3958,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1.3178636998139581</v>
+        <v>1.3162468699390131</v>
       </c>
     </row>
     <row r="487">
@@ -3986,7 +3966,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.84215968699138566</v>
+        <v>0.83998495122838546</v>
       </c>
     </row>
     <row r="488">
@@ -3994,7 +3974,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.17402659238709534</v>
+        <v>0.1716883009356393</v>
       </c>
     </row>
     <row r="489">
@@ -4002,7 +3982,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.1639216386038205</v>
+        <v>0.16155854529810126</v>
       </c>
     </row>
     <row r="490">
@@ -4010,7 +3990,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>-0.51907023758715554</v>
+        <v>-0.5217416096698263</v>
       </c>
     </row>
     <row r="491">
@@ -4018,7 +3998,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>-0.99305398258364774</v>
+        <v>-0.99586770611377351</v>
       </c>
     </row>
     <row r="492">
@@ -4026,7 +4006,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>-1.2010661652037875</v>
+        <v>-1.2035245445927962</v>
       </c>
     </row>
     <row r="493">
@@ -4034,7 +4014,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>-1.2230588336352557</v>
+        <v>-1.2254671749080539</v>
       </c>
     </row>
     <row r="494">
@@ -4042,7 +4022,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>-1.1080015416995501</v>
+        <v>-1.1099899912382316</v>
       </c>
     </row>
     <row r="495">
@@ -4050,7 +4030,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>-0.82895586171120361</v>
+        <v>-0.830852922099796</v>
       </c>
     </row>
     <row r="496">
@@ -4058,7 +4038,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>1.3255506515669409</v>
+        <v>1.3252878867986628</v>
       </c>
     </row>
     <row r="497">
@@ -4066,7 +4046,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>1.0507284037284064</v>
+        <v>1.0498710113373269</v>
       </c>
     </row>
     <row r="498">
@@ -4074,7 +4054,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.58113042846077756</v>
+        <v>0.57941813978802359</v>
       </c>
     </row>
     <row r="499">
@@ -4082,7 +4062,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>-0.025012642514737272</v>
+        <v>-0.027249413614976417</v>
       </c>
     </row>
     <row r="500">
@@ -4090,7 +4070,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>-0.037206857015497585</v>
+        <v>-0.039472959551190567</v>
       </c>
     </row>
     <row r="501">
@@ -4098,7 +4078,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>-0.5961582767991932</v>
+        <v>-0.59917013503938088</v>
       </c>
     </row>
     <row r="502">
@@ -4106,7 +4086,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>-1.0010666176202121</v>
+        <v>-1.0043618463005957</v>
       </c>
     </row>
     <row r="503">
@@ -4114,7 +4094,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>-1.2096021648155248</v>
+        <v>-1.2127329080285649</v>
       </c>
     </row>
     <row r="504">
@@ -4122,7 +4102,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>-1.241392499665815</v>
+        <v>-1.2447268792373403</v>
       </c>
     </row>
     <row r="505">
@@ -4130,7 +4110,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>-1.1493257842439788</v>
+        <v>-1.1524599376126923</v>
       </c>
     </row>
     <row r="506">
@@ -4138,7 +4118,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>-0.90884024863244706</v>
+        <v>-0.91169888624356521</v>
       </c>
     </row>
     <row r="507">
@@ -4146,7 +4126,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>0.8429643721216824</v>
+        <v>0.84212379413480276</v>
       </c>
     </row>
     <row r="508">
@@ -4154,7 +4134,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>0.41280795730084952</v>
+        <v>0.41125504578892513</v>
       </c>
     </row>
     <row r="509">
@@ -4162,7 +4142,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>-0.085108849260772501</v>
+        <v>-0.087851929522457975</v>
       </c>
     </row>
     <row r="510">
@@ -4170,7 +4150,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>-0.091998615676529061</v>
+        <v>-0.09475519604320537</v>
       </c>
     </row>
     <row r="511">
@@ -4178,7 +4158,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>-0.65164784354795358</v>
+        <v>-0.65522027829933549</v>
       </c>
     </row>
     <row r="512">
@@ -4186,7 +4166,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>-1.0439584430700917</v>
+        <v>-1.0477353908555802</v>
       </c>
     </row>
     <row r="513">
@@ -4194,7 +4174,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>-1.1974521639238711</v>
+        <v>-1.2014322399930319</v>
       </c>
     </row>
     <row r="514">
@@ -4202,7 +4182,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>-1.2339671667522907</v>
+        <v>-1.2380370368868747</v>
       </c>
     </row>
     <row r="515">
@@ -4210,7 +4190,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>-1.1595798510294939</v>
+        <v>-1.1634519081991668</v>
       </c>
     </row>
     <row r="516">
@@ -4218,7 +4198,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>0.68920693592074433</v>
+        <v>0.68842070669003819</v>
       </c>
     </row>
     <row r="517">
@@ -4226,7 +4206,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>0.29753456266810741</v>
+        <v>0.29576000284428522</v>
       </c>
     </row>
     <row r="518">
@@ -4234,7 +4214,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>-0.10386896261244548</v>
+        <v>-0.10670257760780928</v>
       </c>
     </row>
     <row r="519">
@@ -4242,7 +4222,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>-0.1096210741098526</v>
+        <v>-0.11246327087389497</v>
       </c>
     </row>
     <row r="520">
@@ -4250,7 +4230,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>-0.60157271190898098</v>
+        <v>-0.60538337072687143</v>
       </c>
     </row>
     <row r="521">
@@ -4258,7 +4238,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>-0.98323015185492812</v>
+        <v>-0.98765099916961929</v>
       </c>
     </row>
     <row r="522">
@@ -4266,7 +4246,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>-1.1442212098663287</v>
+        <v>-1.1489084198732902</v>
       </c>
     </row>
     <row r="523">
@@ -4274,7 +4254,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>-1.2176267112893302</v>
+        <v>-1.2221438695693525</v>
       </c>
     </row>
     <row r="524">
@@ -4282,7 +4262,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>0.33081320955200538</v>
+        <v>0.32823624375257288</v>
       </c>
     </row>
     <row r="525">
@@ -4290,7 +4270,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>-0.025943800449121021</v>
+        <v>-0.029434584079083982</v>
       </c>
     </row>
     <row r="526">
@@ -4298,7 +4278,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>-0.032159076390525433</v>
+        <v>-0.03565778249786343</v>
       </c>
     </row>
     <row r="527">
@@ -4306,7 +4286,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>-0.034604375986106418</v>
+        <v>-0.038111349291621868</v>
       </c>
     </row>
     <row r="528">
@@ -4314,7 +4294,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>-0.042935549322083787</v>
+        <v>-0.04645713522331181</v>
       </c>
     </row>
     <row r="529">
@@ -4322,7 +4302,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>-0.067882759523894554</v>
+        <v>-0.063607917203846828</v>
       </c>
     </row>
     <row r="530">
@@ -4330,7 +4310,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>-0.49269630747452592</v>
+        <v>-0.48883682044339388</v>
       </c>
     </row>
     <row r="531">
@@ -4338,7 +4318,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>-0.48520881925816994</v>
+        <v>-0.48141522622100197</v>
       </c>
     </row>
     <row r="532">
@@ -4346,7 +4326,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>0.53034690648850158</v>
+        <v>0.53461596071079476</v>
       </c>
     </row>
     <row r="533">
@@ -4354,7 +4334,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>0.15255042564063392</v>
+        <v>0.15684065849351195</v>
       </c>
     </row>
     <row r="534">
@@ -4362,7 +4342,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>-0.33575782020972672</v>
+        <v>-0.33113860996628869</v>
       </c>
     </row>
     <row r="535">
@@ -4370,7 +4350,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>-0.3530052521371943</v>
+        <v>-0.34850693280981171</v>
       </c>
     </row>
     <row r="536">
@@ -4378,7 +4358,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>-0.73851894889910707</v>
+        <v>-0.73434199706091208</v>
       </c>
     </row>
     <row r="537">
@@ -4386,7 +4366,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>1.1074260856655489</v>
+        <v>1.1119016242939495</v>
       </c>
     </row>
     <row r="538">
@@ -4394,7 +4374,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>0.80084409546170343</v>
+        <v>0.80530024115636611</v>
       </c>
     </row>
     <row r="539">
@@ -4402,7 +4382,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>0.42833280880936414</v>
+        <v>0.43296231886527242</v>
       </c>
     </row>
     <row r="540">
@@ -4410,7 +4390,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>-0.042848161081746279</v>
+        <v>-0.038055797065504715</v>
       </c>
     </row>
     <row r="541">
@@ -4418,7 +4398,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>-0.068825782724996218</v>
+        <v>-0.063978327332073995</v>
       </c>
     </row>
     <row r="542">
@@ -4426,7 +4406,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>-0.57450252264690072</v>
+        <v>-0.56968728812140579</v>
       </c>
     </row>
     <row r="543">
@@ -4434,7 +4414,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>-0.95605068679044058</v>
+        <v>-0.95119981974772028</v>
       </c>
     </row>
     <row r="544">
@@ -4442,7 +4422,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>1.5280622605247287</v>
+        <v>1.5315455075481097</v>
       </c>
     </row>
     <row r="545">
@@ -4450,7 +4430,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>1.2360883278792283</v>
+        <v>1.2394306513929758</v>
       </c>
     </row>
     <row r="546">
@@ -4458,7 +4438,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>1.0091891332420404</v>
+        <v>1.0106814952484489</v>
       </c>
     </row>
     <row r="547">
@@ -4466,7 +4446,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>0.26133492614349141</v>
+        <v>0.2655708525331606</v>
       </c>
     </row>
     <row r="548">
@@ -4474,7 +4454,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>0.21722347784598633</v>
+        <v>0.22136258750633409</v>
       </c>
     </row>
     <row r="549">
@@ -4482,7 +4462,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>-0.41490360611121235</v>
+        <v>-0.41027097617391084</v>
       </c>
     </row>
     <row r="550">
@@ -4490,7 +4470,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>-0.91357477917779151</v>
+        <v>-0.90896540888531852</v>
       </c>
     </row>
     <row r="551">
@@ -4498,7 +4478,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>-1.1010066009546531</v>
+        <v>-1.0969102912179967</v>
       </c>
     </row>
     <row r="552">
@@ -4506,7 +4486,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>2.0324520585145063</v>
+        <v>2.0338345059428624</v>
       </c>
     </row>
     <row r="553">
@@ -4514,7 +4494,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>1.920793966948755</v>
+        <v>1.9224822611859482</v>
       </c>
     </row>
     <row r="554">
@@ -4522,7 +4502,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>1.6151209059302583</v>
+        <v>1.617014680007179</v>
       </c>
     </row>
     <row r="555">
@@ -4530,7 +4510,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>1.0872656102516107</v>
+        <v>1.0892657134192951</v>
       </c>
     </row>
     <row r="556">
@@ -4538,7 +4518,7 @@
         <v>555</v>
       </c>
       <c r="B556">
-        <v>0.37337020453233871</v>
+        <v>0.37626541946990139</v>
       </c>
     </row>
     <row r="557">
@@ -4546,7 +4526,7 @@
         <v>556</v>
       </c>
       <c r="B557">
-        <v>0.33704786445941154</v>
+        <v>0.33986597887841452</v>
       </c>
     </row>
     <row r="558">
@@ -4554,7 +4534,7 @@
         <v>557</v>
       </c>
       <c r="B558">
-        <v>-0.41765586005836286</v>
+        <v>-0.41392171102501096</v>
       </c>
     </row>
     <row r="559">
@@ -4562,7 +4542,7 @@
         <v>558</v>
       </c>
       <c r="B559">
-        <v>-0.90627124900853917</v>
+        <v>-0.90251174608934825</v>
       </c>
     </row>
     <row r="560">
@@ -4570,7 +4550,7 @@
         <v>559</v>
       </c>
       <c r="B560">
-        <v>-1.1009122263799498</v>
+        <v>-1.0971952428785883</v>
       </c>
     </row>
     <row r="561">
@@ -4578,7 +4558,7 @@
         <v>560</v>
       </c>
       <c r="B561">
-        <v>2.287599870254077</v>
+        <v>2.2875995519126642</v>
       </c>
     </row>
     <row r="562">
@@ -4586,7 +4566,7 @@
         <v>561</v>
       </c>
       <c r="B562">
-        <v>2.2050938464701342</v>
+        <v>2.2052874533410503</v>
       </c>
     </row>
     <row r="563">
@@ -4594,7 +4574,7 @@
         <v>562</v>
       </c>
       <c r="B563">
-        <v>1.880853692223694</v>
+        <v>1.8810449845484691</v>
       </c>
     </row>
     <row r="564">
@@ -4602,7 +4582,7 @@
         <v>563</v>
       </c>
       <c r="B564">
-        <v>1.29152682389276</v>
+        <v>1.2918603812989118</v>
       </c>
     </row>
     <row r="565">
@@ -4610,7 +4590,7 @@
         <v>564</v>
       </c>
       <c r="B565">
-        <v>0.40639082182439312</v>
+        <v>0.40769025032459499</v>
       </c>
     </row>
     <row r="566">
@@ -4618,7 +4598,7 @@
         <v>565</v>
       </c>
       <c r="B566">
-        <v>0.36490122469770431</v>
+        <v>0.36609572296701415</v>
       </c>
     </row>
     <row r="567">
@@ -4626,7 +4606,7 @@
         <v>566</v>
       </c>
       <c r="B567">
-        <v>-0.47657562183157703</v>
+        <v>-0.47455221222319688</v>
       </c>
     </row>
     <row r="568">
@@ -4634,7 +4614,7 @@
         <v>567</v>
       </c>
       <c r="B568">
-        <v>-0.98466600392568393</v>
+        <v>-0.98215779808506432</v>
       </c>
     </row>
     <row r="569">
@@ -4642,7 +4622,7 @@
         <v>568</v>
       </c>
       <c r="B569">
-        <v>-1.1245292538620937</v>
+        <v>-1.1217877396953557</v>
       </c>
     </row>
     <row r="570">
@@ -4650,7 +4630,7 @@
         <v>569</v>
       </c>
       <c r="B570">
-        <v>-1.0807973705094867</v>
+        <v>-1.0777103393840077</v>
       </c>
     </row>
     <row r="571">
@@ -4658,7 +4638,7 @@
         <v>570</v>
       </c>
       <c r="B571">
-        <v>1.1882001932544761</v>
+        <v>1.1891903476010861</v>
       </c>
     </row>
     <row r="572">
@@ -4666,7 +4646,7 @@
         <v>571</v>
       </c>
       <c r="B572">
-        <v>2.2800283329768112</v>
+        <v>2.2791052718763107</v>
       </c>
     </row>
     <row r="573">
@@ -4674,7 +4654,7 @@
         <v>572</v>
       </c>
       <c r="B573">
-        <v>1.9090551318054336</v>
+        <v>1.9084625445808219</v>
       </c>
     </row>
     <row r="574">
@@ -4682,7 +4662,7 @@
         <v>573</v>
       </c>
       <c r="B574">
-        <v>1.2628675395324216</v>
+        <v>1.2621434631075474</v>
       </c>
     </row>
     <row r="575">
@@ -4690,7 +4670,7 @@
         <v>574</v>
       </c>
       <c r="B575">
-        <v>0.29476331976039305</v>
+        <v>0.29442348557660847</v>
       </c>
     </row>
     <row r="576">
@@ -4698,7 +4678,7 @@
         <v>575</v>
       </c>
       <c r="B576">
-        <v>0.26230413141213782</v>
+        <v>0.26187845502904783</v>
       </c>
     </row>
     <row r="577">
@@ -4706,7 +4686,7 @@
         <v>576</v>
       </c>
       <c r="B577">
-        <v>-0.57533613048993626</v>
+        <v>-0.57504308233890833</v>
       </c>
     </row>
     <row r="578">
@@ -4714,7 +4694,7 @@
         <v>577</v>
       </c>
       <c r="B578">
-        <v>-1.0901406044525552</v>
+        <v>-1.0892226448079987</v>
       </c>
     </row>
     <row r="579">
@@ -4722,7 +4702,7 @@
         <v>578</v>
       </c>
       <c r="B579">
-        <v>-1.2100824501168013</v>
+        <v>-1.2084808801895686</v>
       </c>
     </row>
     <row r="580">
@@ -4730,7 +4710,7 @@
         <v>579</v>
       </c>
       <c r="B580">
-        <v>-1.1509612541855623</v>
+        <v>-1.1486715859578374</v>
       </c>
     </row>
     <row r="581">
@@ -4738,7 +4718,7 @@
         <v>580</v>
       </c>
       <c r="B581">
-        <v>-0.96518877523165181</v>
+        <v>-0.96280553503074218</v>
       </c>
     </row>
     <row r="582">
@@ -4746,7 +4726,7 @@
         <v>581</v>
       </c>
       <c r="B582">
-        <v>1.1512690720364172</v>
+        <v>1.1521689833231681</v>
       </c>
     </row>
     <row r="583">
@@ -4754,7 +4734,7 @@
         <v>582</v>
       </c>
       <c r="B583">
-        <v>2.2478004109692113</v>
+        <v>2.2467916936036829</v>
       </c>
     </row>
     <row r="584">
@@ -4762,7 +4742,7 @@
         <v>583</v>
       </c>
       <c r="B584">
-        <v>1.8724125338266</v>
+        <v>1.8717120394957405</v>
       </c>
     </row>
     <row r="585">
@@ -4770,7 +4750,7 @@
         <v>584</v>
       </c>
       <c r="B585">
-        <v>1.2215861368535335</v>
+        <v>1.2207356496178416</v>
       </c>
     </row>
     <row r="586">
@@ -4778,7 +4758,7 @@
         <v>585</v>
       </c>
       <c r="B586">
-        <v>0.25946786859673537</v>
+        <v>0.25900972469016742</v>
       </c>
     </row>
     <row r="587">
@@ -4786,7 +4766,7 @@
         <v>586</v>
       </c>
       <c r="B587">
-        <v>0.23187035550285853</v>
+        <v>0.23135096420478832</v>
       </c>
     </row>
     <row r="588">
@@ -4794,7 +4774,7 @@
         <v>587</v>
       </c>
       <c r="B588">
-        <v>-0.6066798963659723</v>
+        <v>-0.60647245144426043</v>
       </c>
     </row>
     <row r="589">
@@ -4802,7 +4782,7 @@
         <v>588</v>
       </c>
       <c r="B589">
-        <v>-1.1152313214076919</v>
+        <v>-1.1143986540521602</v>
       </c>
     </row>
     <row r="590">
@@ -4810,7 +4790,7 @@
         <v>589</v>
       </c>
       <c r="B590">
-        <v>-1.2355175468522914</v>
+        <v>-1.2340424975060869</v>
       </c>
     </row>
     <row r="591">
@@ -4818,7 +4798,7 @@
         <v>590</v>
       </c>
       <c r="B591">
-        <v>-1.1708778825154833</v>
+        <v>-1.1687098979727391</v>
       </c>
     </row>
     <row r="592">
@@ -4826,7 +4806,7 @@
         <v>591</v>
       </c>
       <c r="B592">
-        <v>-0.97439415919565386</v>
+        <v>-0.97206818529352945</v>
       </c>
     </row>
     <row r="593">
@@ -4834,7 +4814,7 @@
         <v>592</v>
       </c>
       <c r="B593">
-        <v>2.2774193261703664</v>
+        <v>2.2761949771781356</v>
       </c>
     </row>
     <row r="594">
@@ -4842,7 +4822,7 @@
         <v>593</v>
       </c>
       <c r="B594">
-        <v>2.1070244571880394</v>
+        <v>2.1057260985640922</v>
       </c>
     </row>
     <row r="595">
@@ -4850,7 +4830,7 @@
         <v>594</v>
       </c>
       <c r="B595">
-        <v>1.672154388897992</v>
+        <v>1.6710439575289395</v>
       </c>
     </row>
     <row r="596">
@@ -4858,7 +4838,7 @@
         <v>595</v>
       </c>
       <c r="B596">
-        <v>0.69120213365716776</v>
+        <v>0.69393863314919446</v>
       </c>
     </row>
     <row r="597">
@@ -4866,7 +4846,7 @@
         <v>596</v>
       </c>
       <c r="B597">
-        <v>0.1138294763163267</v>
+        <v>0.11240484005199997</v>
       </c>
     </row>
     <row r="598">
@@ -4874,7 +4854,7 @@
         <v>597</v>
       </c>
       <c r="B598">
-        <v>0.10182476046960441</v>
+        <v>0.10037396397481183</v>
       </c>
     </row>
     <row r="599">
@@ -4882,7 +4862,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>-0.70614220756696877</v>
+        <v>-0.70724100072085549</v>
       </c>
     </row>
     <row r="600">
@@ -4890,7 +4870,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>-1.2294049163841609</v>
+        <v>-1.2299506449299074</v>
       </c>
     </row>
     <row r="601">
@@ -4898,7 +4878,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>-1.3804827173739724</v>
+        <v>-1.3801677066597746</v>
       </c>
     </row>
     <row r="602">
@@ -4906,7 +4886,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>-1.2741532613716615</v>
+        <v>-1.2727584675974404</v>
       </c>
     </row>
     <row r="603">
@@ -4914,7 +4894,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>-1.1262628080973636</v>
+        <v>-1.1247840931471187</v>
       </c>
     </row>
     <row r="604">
@@ -4922,7 +4902,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>2.0896799626913829</v>
+        <v>2.0883647834962975</v>
       </c>
     </row>
     <row r="605">
@@ -4930,7 +4910,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>1.8009255986986528</v>
+        <v>1.7996399195661068</v>
       </c>
     </row>
     <row r="606">
@@ -4938,7 +4918,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>1.3525874683687518</v>
+        <v>1.3512233948398371</v>
       </c>
     </row>
     <row r="607">
@@ -4946,7 +4926,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>0.70437255982457581</v>
+        <v>0.70257159321702067</v>
       </c>
     </row>
     <row r="608">
@@ -4954,7 +4934,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>-0.099193438400017334</v>
+        <v>-0.10116676794684885</v>
       </c>
     </row>
     <row r="609">
@@ -4962,7 +4942,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>-0.10908320902450308</v>
+        <v>-0.11107034541526024</v>
       </c>
     </row>
     <row r="610">
@@ -4970,7 +4950,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>-0.87187053499862166</v>
+        <v>-0.87382515569861119</v>
       </c>
     </row>
     <row r="611">
@@ -4978,7 +4958,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>-1.3663701638738053</v>
+        <v>-1.3679495530925461</v>
       </c>
     </row>
     <row r="612">
@@ -4986,7 +4966,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>-1.5332569873770789</v>
+        <v>-1.5343967649833223</v>
       </c>
     </row>
     <row r="613">
@@ -4994,7 +4974,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>-1.426934681433097</v>
+        <v>-1.4273401691060172</v>
       </c>
     </row>
     <row r="614">
@@ -5002,7 +4982,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>-1.2479331218775713</v>
+        <v>-1.2479667147629707</v>
       </c>
     </row>
     <row r="615">
@@ -5010,7 +4990,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>1.6299705669124089</v>
+        <v>1.6288797973554039</v>
       </c>
     </row>
     <row r="616">
@@ -5018,7 +4998,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>1.3895746046754458</v>
+        <v>1.3883842177117709</v>
       </c>
     </row>
     <row r="617">
@@ -5026,7 +5006,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>0.97149616939107397</v>
+        <v>0.96996950515386149</v>
       </c>
     </row>
     <row r="618">
@@ -5034,7 +5014,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>0.41501033413765076</v>
+        <v>0.41291384822439026</v>
       </c>
     </row>
     <row r="619">
@@ -5042,7 +5022,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.28221656041975801</v>
+        <v>-0.28446901382462619</v>
       </c>
     </row>
     <row r="620">
@@ -5050,7 +5030,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.29016603588288609</v>
+        <v>-0.2924432788725837</v>
       </c>
     </row>
     <row r="621">
@@ -5058,7 +5038,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>-1.0032139705422529</v>
+        <v>-1.0058761682429491</v>
       </c>
     </row>
     <row r="622">
@@ -5066,7 +5046,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>-1.4247874498131348</v>
+        <v>-1.4272816713266647</v>
       </c>
     </row>
     <row r="623">
@@ -5074,7 +5054,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>-1.6090136880779125</v>
+        <v>-1.6111100308395661</v>
       </c>
     </row>
     <row r="624">
@@ -5082,7 +5062,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>-1.5467598520624106</v>
+        <v>-1.548539497265375</v>
       </c>
     </row>
     <row r="625">
@@ -5090,7 +5070,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>-1.3803989655638271</v>
+        <v>-1.3820162600354273</v>
       </c>
     </row>
     <row r="626">
@@ -5098,7 +5078,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>0.98920257971001135</v>
+        <v>0.98856392740758547</v>
       </c>
     </row>
     <row r="627">
@@ -5106,7 +5086,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>0.62151011914982834</v>
+        <v>0.62028350022322221</v>
       </c>
     </row>
     <row r="628">
@@ -5114,7 +5094,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>0.15409253873554563</v>
+        <v>0.15223728632839614</v>
       </c>
     </row>
     <row r="629">
@@ -5122,7 +5102,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>-0.48413857971554014</v>
+        <v>-0.48639569953479833</v>
       </c>
     </row>
     <row r="630">
@@ -5130,7 +5110,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.49240150446409559</v>
+        <v>-0.49468365921771362</v>
       </c>
     </row>
     <row r="631">
@@ -5138,7 +5118,7 @@
         <v>630</v>
       </c>
       <c r="B631">
-        <v>-1.0634299394580566</v>
+        <v>-1.0662997323446632</v>
       </c>
     </row>
     <row r="632">
@@ -5146,7 +5126,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>-1.4508497014921937</v>
+        <v>-1.4536951688985325</v>
       </c>
     </row>
     <row r="633">
@@ -5154,7 +5134,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>-1.6005395204295296</v>
+        <v>-1.6034009258932793</v>
       </c>
     </row>
     <row r="634">
@@ -5162,7 +5142,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>-1.591556565458943</v>
+        <v>-1.5943059937821653</v>
       </c>
     </row>
     <row r="635">
@@ -5170,7 +5150,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>-1.3892078106960861</v>
+        <v>-1.391811213830993</v>
       </c>
     </row>
     <row r="636">
@@ -5178,7 +5158,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>0.66694103667790039</v>
+        <v>0.66653412936928891</v>
       </c>
     </row>
     <row r="637">
@@ -5186,7 +5166,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>0.38832951005760569</v>
+        <v>0.38718132532178523</v>
       </c>
     </row>
     <row r="638">
@@ -5194,7 +5174,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-0.046878050823606486</v>
+        <v>-0.048629972181846018</v>
       </c>
     </row>
     <row r="639">
@@ -5202,7 +5182,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-0.56422961867340549</v>
+        <v>-0.56672846816480937</v>
       </c>
     </row>
     <row r="640">
@@ -5210,7 +5190,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>-0.57194406881527371</v>
+        <v>-0.57446556179311092</v>
       </c>
     </row>
     <row r="641">
@@ -5218,7 +5198,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>-1.1087739714935485</v>
+        <v>-1.1120679162484877</v>
       </c>
     </row>
     <row r="642">
@@ -5226,7 +5206,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>-1.4466245641453073</v>
+        <v>-1.4503122848110566</v>
       </c>
     </row>
     <row r="643">
@@ -5234,7 +5214,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>-1.5983845783968123</v>
+        <v>-1.6019255401207542</v>
       </c>
     </row>
     <row r="644">
@@ -5242,7 +5222,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>-1.5617541852732191</v>
+        <v>-1.5652591951147643</v>
       </c>
     </row>
     <row r="645">
@@ -5250,7 +5230,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>-1.3918359930610913</v>
+        <v>-1.3953192218519068</v>
       </c>
     </row>
     <row r="646">
@@ -5258,7 +5238,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>0.44997479633050685</v>
+        <v>0.4491440971517206</v>
       </c>
     </row>
     <row r="647">
@@ -5266,7 +5246,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>0.22550777649574075</v>
+        <v>0.22418159047705516</v>
       </c>
     </row>
     <row r="648">
@@ -5274,7 +5254,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>-0.14174951857142112</v>
+        <v>-0.14396066369779056</v>
       </c>
     </row>
     <row r="649">
@@ -5282,7 +5262,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>-0.55090394738689419</v>
+        <v>-0.55387723797423605</v>
       </c>
     </row>
     <row r="650">
@@ -5290,7 +5270,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>-0.56188699804621689</v>
+        <v>-0.56488485495899066</v>
       </c>
     </row>
     <row r="651">
@@ -5298,7 +5278,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>-1.0766993013923374</v>
+        <v>-1.0804864470288154</v>
       </c>
     </row>
     <row r="652">
@@ -5306,7 +5286,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>-1.3936633656694351</v>
+        <v>-1.3980529913297755</v>
       </c>
     </row>
     <row r="653">
@@ -5314,7 +5294,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>-1.5283278197681209</v>
+        <v>-1.5328015482372908</v>
       </c>
     </row>
     <row r="654">
@@ -5322,7 +5302,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>-1.4878690512213131</v>
+        <v>-1.4919539598894911</v>
       </c>
     </row>
     <row r="655">
@@ -5330,7 +5310,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>0.13641966145455636</v>
+        <v>0.13413058257343954</v>
       </c>
     </row>
     <row r="656">
@@ -5338,7 +5318,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>-0.16154034445790771</v>
+        <v>-0.1646767383162098</v>
       </c>
     </row>
     <row r="657">
@@ -5346,7 +5326,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>-0.49548163264655903</v>
+        <v>-0.4994120505850278</v>
       </c>
     </row>
     <row r="658">
@@ -5354,7 +5334,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>-0.50364068111315163</v>
+        <v>-0.5075856098008461</v>
       </c>
     </row>
     <row r="659">
@@ -5362,7 +5342,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>-0.93518007310036477</v>
+        <v>-0.9398816870824126</v>
       </c>
     </row>
     <row r="660">
@@ -5370,7 +5350,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>-1.2606543927415299</v>
+        <v>-1.2657445874513926</v>
       </c>
     </row>
     <row r="661">
@@ -5378,7 +5358,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>0.13907782269208258</v>
+        <v>0.13681762884975687</v>
       </c>
     </row>
     <row r="662">
@@ -5386,7 +5366,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>-0.16460935141955463</v>
+        <v>-0.16774644803903391</v>
       </c>
     </row>
     <row r="663">
@@ -5394,7 +5374,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>-0.49779618668678016</v>
+        <v>-0.50172245548457983</v>
       </c>
     </row>
     <row r="664">
@@ -5402,7 +5382,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>-0.50176923475087365</v>
+        <v>-0.50569081491379886</v>
       </c>
     </row>
     <row r="665">
@@ -5410,7 +5390,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>-0.93004430634592716</v>
+        <v>-0.93471198452313631</v>
       </c>
     </row>
     <row r="666">
@@ -5418,7 +5398,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>-1.2491373450457284</v>
+        <v>-1.2541625761191302</v>
       </c>
     </row>
     <row r="667">
@@ -5426,7 +5406,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>-0.095529117166970406</v>
+        <v>-0.090641599602753364</v>
       </c>
     </row>
     <row r="668">
@@ -5434,7 +5414,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>-0.12222348661499781</v>
+        <v>-0.11733186454424735</v>
       </c>
     </row>
     <row r="669">
@@ -5442,7 +5422,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>0.88101836451095628</v>
+        <v>0.88483996556028888</v>
       </c>
     </row>
     <row r="670">
@@ -5450,7 +5430,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>0.51080001302790556</v>
+        <v>0.51477573492605</v>
       </c>
     </row>
     <row r="671">
@@ -5458,7 +5438,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>0.047689475881518534</v>
+        <v>0.05199112182574437</v>
       </c>
     </row>
     <row r="672">
@@ -5466,7 +5446,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>0.018522683578185151</v>
+        <v>0.022769482260221904</v>
       </c>
     </row>
     <row r="673">
@@ -5474,7 +5454,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>-0.49682811492072942</v>
+        <v>-0.49233600794358018</v>
       </c>
     </row>
     <row r="674">
@@ -5482,7 +5462,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>1.5592394957007893</v>
+        <v>1.5617796788997214</v>
       </c>
     </row>
     <row r="675">
@@ -5490,7 +5470,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>1.189955672707119</v>
+        <v>1.1925627193425645</v>
       </c>
     </row>
     <row r="676">
@@ -5498,7 +5478,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>0.67049118868014923</v>
+        <v>0.67329871189047164</v>
       </c>
     </row>
     <row r="677">
@@ -5506,7 +5486,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>0.044232195243905106</v>
+        <v>0.047482639334758499</v>
       </c>
     </row>
     <row r="678">
@@ -5514,7 +5494,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>0.010424800070037432</v>
+        <v>0.013603015360434777</v>
       </c>
     </row>
     <row r="679">
@@ -5522,7 +5502,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>-0.60368500242053924</v>
+        <v>-0.60003917599535272</v>
       </c>
     </row>
     <row r="680">
@@ -5530,7 +5510,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>-1.0655461860941202</v>
+        <v>-1.0616296197706943</v>
       </c>
     </row>
     <row r="681">
@@ -5538,7 +5518,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>-1.1957505079311301</v>
+        <v>-1.1918688415746785</v>
       </c>
     </row>
     <row r="682">
@@ -5546,7 +5526,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>2.0341201851583577</v>
+        <v>2.0345558608347396</v>
       </c>
     </row>
     <row r="683">
@@ -5554,7 +5534,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>1.8862328822831218</v>
+        <v>1.8871075623798159</v>
       </c>
     </row>
     <row r="684">
@@ -5562,7 +5542,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>1.4808067260723257</v>
+        <v>1.4819951044208757</v>
       </c>
     </row>
     <row r="685">
@@ -5570,7 +5550,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>0.80286072341986747</v>
+        <v>0.80406512545948983</v>
       </c>
     </row>
     <row r="686">
@@ -5578,7 +5558,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>-0.028260839381441267</v>
+        <v>-0.026484411058292384</v>
       </c>
     </row>
     <row r="687">
@@ -5586,7 +5566,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>-0.053237905153470461</v>
+        <v>-0.051526898184019156</v>
       </c>
     </row>
     <row r="688">
@@ -5594,7 +5574,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>-0.77255707088121861</v>
+        <v>-0.77037725835463011</v>
       </c>
     </row>
     <row r="689">
@@ -5602,7 +5582,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-1.2014536308406942</v>
+        <v>-1.1988530610522432</v>
       </c>
     </row>
     <row r="690">
@@ -5610,7 +5590,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>-1.301151210094317</v>
+        <v>-1.298330473315404</v>
       </c>
     </row>
     <row r="691">
@@ -5618,7 +5598,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>2.1190412732910873</v>
+        <v>2.1184275597854327</v>
       </c>
     </row>
     <row r="692">
@@ -5626,7 +5606,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>2.0288045472865854</v>
+        <v>2.0283980558151971</v>
       </c>
     </row>
     <row r="693">
@@ -5634,7 +5614,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>1.5530494050403385</v>
+        <v>1.5530356950756015</v>
       </c>
     </row>
     <row r="694">
@@ -5642,7 +5622,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>0.79536026528699266</v>
+        <v>0.79522763155928744</v>
       </c>
     </row>
     <row r="695">
@@ -5650,7 +5630,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.19841275817970708</v>
+        <v>-0.19834162507749248</v>
       </c>
     </row>
     <row r="696">
@@ -5658,7 +5638,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>-0.22039035134132792</v>
+        <v>-0.22038390936212515</v>
       </c>
     </row>
     <row r="697">
@@ -5666,7 +5646,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>-0.94864049923405547</v>
+        <v>-0.94813706492396743</v>
       </c>
     </row>
     <row r="698">
@@ -5674,7 +5654,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>-1.320230693182217</v>
+        <v>-1.3192786005135839</v>
       </c>
     </row>
     <row r="699">
@@ -5682,7 +5662,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>-1.4230197919584062</v>
+        <v>-1.4214233559764426</v>
       </c>
     </row>
     <row r="700">
@@ -5690,7 +5670,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>-1.356946005237333</v>
+        <v>-1.3547415190172309</v>
       </c>
     </row>
     <row r="701">
@@ -5698,7 +5678,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>2.0816220324165946</v>
+        <v>2.0809435010002639</v>
       </c>
     </row>
     <row r="702">
@@ -5706,7 +5686,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>1.9886733520889264</v>
+        <v>1.9881896879913401</v>
       </c>
     </row>
     <row r="703">
@@ -5714,7 +5694,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>1.5099334081884579</v>
+        <v>1.5098259143448718</v>
       </c>
     </row>
     <row r="704">
@@ -5722,7 +5702,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>0.74883255944100824</v>
+        <v>0.74859976338195033</v>
       </c>
     </row>
     <row r="705">
@@ -5730,7 +5710,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.22470668770372126</v>
+        <v>-0.22469322277135814</v>
       </c>
     </row>
     <row r="706">
@@ -5738,7 +5718,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.23462168763708099</v>
+        <v>-0.23464543057394988</v>
       </c>
     </row>
     <row r="707">
@@ -5746,7 +5726,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>-0.96247257688614873</v>
+        <v>-0.96200875358054516</v>
       </c>
     </row>
     <row r="708">
@@ -5754,7 +5734,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>-1.3332147078986853</v>
+        <v>-1.3322994148335894</v>
       </c>
     </row>
     <row r="709">
@@ -5762,7 +5742,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>-1.4404536374757413</v>
+        <v>-1.4389393788371014</v>
       </c>
     </row>
     <row r="710">
@@ -5770,7 +5750,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>-1.378298288070815</v>
+        <v>-1.3761901964149794</v>
       </c>
     </row>
     <row r="711">
@@ -5778,7 +5758,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>2.0371925640498256</v>
+        <v>2.0360153332051238</v>
       </c>
     </row>
     <row r="712">
@@ -5786,7 +5766,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>1.8426557464873798</v>
+        <v>1.841478943246134</v>
       </c>
     </row>
     <row r="713">
@@ -5794,7 +5774,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>1.3392693013568109</v>
+        <v>1.3386889712852501</v>
       </c>
     </row>
     <row r="714">
@@ -5802,7 +5782,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>0.54965642073801524</v>
+        <v>0.54876182603839396</v>
       </c>
     </row>
     <row r="715">
@@ -5810,7 +5790,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.30830432163653332</v>
+        <v>-0.30952084145378944</v>
       </c>
     </row>
     <row r="716">
@@ -5818,7 +5798,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>-0.31266163828203097</v>
+        <v>-0.31390236013516143</v>
       </c>
     </row>
     <row r="717">
@@ -5826,7 +5806,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-1.0317075909685778</v>
+        <v>-1.0326702976393818</v>
       </c>
     </row>
     <row r="718">
@@ -5834,7 +5814,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>-1.4346209961732332</v>
+        <v>-1.4349796306756288</v>
       </c>
     </row>
     <row r="719">
@@ -5842,7 +5822,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>-1.5623520304115719</v>
+        <v>-1.5620229585896264</v>
       </c>
     </row>
     <row r="720">
@@ -5850,7 +5830,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>-1.4852872512511097</v>
+        <v>-1.4841635147860415</v>
       </c>
     </row>
     <row r="721">
@@ -5858,7 +5838,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>-1.3359092200072957</v>
+        <v>-1.3344332328066624</v>
       </c>
     </row>
     <row r="722">
@@ -5866,7 +5846,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>1.812365787395567</v>
+        <v>1.8111788952727137</v>
       </c>
     </row>
     <row r="723">
@@ -5874,7 +5854,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>1.5021335180354096</v>
+        <v>1.5005025100830125</v>
       </c>
     </row>
     <row r="724">
@@ -5882,7 +5862,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>1.0116720636951237</v>
+        <v>1.0103716745157718</v>
       </c>
     </row>
     <row r="725">
@@ -5890,7 +5870,7 @@
         <v>724</v>
       </c>
       <c r="B725">
-        <v>0.32873040338678894</v>
+        <v>0.32684282499075396</v>
       </c>
     </row>
     <row r="726">
@@ -5898,7 +5878,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>-0.47069239505496063</v>
+        <v>-0.47239140641570387</v>
       </c>
     </row>
     <row r="727">
@@ -5906,7 +5886,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>-0.4763472450990755</v>
+        <v>-0.47807226063610991</v>
       </c>
     </row>
     <row r="728">
@@ -5914,7 +5894,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-1.1672389783898836</v>
+        <v>-1.1689694291307784</v>
       </c>
     </row>
     <row r="729">
@@ -5922,7 +5902,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>-1.5514322360399151</v>
+        <v>-1.5528816496859086</v>
       </c>
     </row>
     <row r="730">
@@ -5930,7 +5910,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>-1.6908080291280136</v>
+        <v>-1.6916823644218137</v>
       </c>
     </row>
     <row r="731">
@@ -5938,7 +5918,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>-1.624322931460511</v>
+        <v>-1.6245057963992617</v>
       </c>
     </row>
     <row r="732">
@@ -5946,7 +5926,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>-1.4610531934641608</v>
+        <v>-1.4608341841864805</v>
       </c>
     </row>
     <row r="733">
@@ -5954,7 +5934,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>1.3963321669152129</v>
+        <v>1.3952701323463472</v>
       </c>
     </row>
     <row r="734">
@@ -5962,7 +5942,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>1.0964103058130066</v>
+        <v>1.0951708987624078</v>
       </c>
     </row>
     <row r="735">
@@ -5970,7 +5950,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>0.65146067021718757</v>
+        <v>0.65002032948847321</v>
       </c>
     </row>
     <row r="736">
@@ -5978,7 +5958,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>0.056687770582716901</v>
+        <v>0.054845166768168654</v>
       </c>
     </row>
     <row r="737">
@@ -5986,7 +5966,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>-0.62043359833957745</v>
+        <v>-0.62271036744143138</v>
       </c>
     </row>
     <row r="738">
@@ -5994,7 +5974,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>-0.62882737230529706</v>
+        <v>-0.63113140121508571</v>
       </c>
     </row>
     <row r="739">
@@ -6002,7 +5982,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>-1.2793305300034961</v>
+        <v>-1.2816895624128464</v>
       </c>
     </row>
     <row r="740">
@@ -6010,7 +5990,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>-1.6689798655217238</v>
+        <v>-1.6710717861763107</v>
       </c>
     </row>
     <row r="741">
@@ -6018,7 +5998,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>-1.7884957673696156</v>
+        <v>-1.7900918772106353</v>
       </c>
     </row>
     <row r="742">
@@ -6026,7 +6006,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>-1.6944525326380455</v>
+        <v>-1.6957553154319569</v>
       </c>
     </row>
     <row r="743">
@@ -6034,7 +6014,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>-1.5420148467155306</v>
+        <v>-1.5430844871656419</v>
       </c>
     </row>
     <row r="744">
@@ -6042,7 +6022,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>0.94164785277460505</v>
+        <v>0.94111453776571286</v>
       </c>
     </row>
     <row r="745">
@@ -6050,7 +6030,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>0.7020129097916703</v>
+        <v>0.70129266036292681</v>
       </c>
     </row>
     <row r="746">
@@ -6058,7 +6038,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>0.35880474630940756</v>
+        <v>0.35785051555575875</v>
       </c>
     </row>
     <row r="747">
@@ -6066,7 +6046,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>-0.15217896292327066</v>
+        <v>-0.15386336946634899</v>
       </c>
     </row>
     <row r="748">
@@ -6074,7 +6054,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>-0.76510172294527135</v>
+        <v>-0.76726345475741686</v>
       </c>
     </row>
     <row r="749">
@@ -6082,7 +6062,7 @@
         <v>748</v>
       </c>
       <c r="B749">
-        <v>-0.77228434147941427</v>
+        <v>-0.77446790141479793</v>
       </c>
     </row>
     <row r="750">
@@ -6090,7 +6070,7 @@
         <v>749</v>
       </c>
       <c r="B750">
-        <v>-1.3321212742204529</v>
+        <v>-1.3345621376373975</v>
       </c>
     </row>
     <row r="751">
@@ -6098,7 +6078,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>-1.6822926988152052</v>
+        <v>-1.684727181792284</v>
       </c>
     </row>
     <row r="752">
@@ -6106,7 +6086,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>-1.7808545130599618</v>
+        <v>-1.7830155580676423</v>
       </c>
     </row>
     <row r="753">
@@ -6114,7 +6094,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>-1.7133640926222904</v>
+        <v>-1.7155039294052399</v>
       </c>
     </row>
     <row r="754">
@@ -6122,7 +6102,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>-1.5493074097278594</v>
+        <v>-1.5513734524974665</v>
       </c>
     </row>
     <row r="755">
@@ -6130,7 +6110,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>0.60964800645409534</v>
+        <v>0.60946058741549702</v>
       </c>
     </row>
     <row r="756">
@@ -6138,7 +6118,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>0.46224631707492891</v>
+        <v>0.46167233870030133</v>
       </c>
     </row>
     <row r="757">
@@ -6146,7 +6126,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>0.16297998936597172</v>
+        <v>0.16184938211128003</v>
       </c>
     </row>
     <row r="758">
@@ -6154,7 +6134,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>-0.28490471239794385</v>
+        <v>-0.28659726631223131</v>
       </c>
     </row>
     <row r="759">
@@ -6162,7 +6142,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>-0.79975088827278018</v>
+        <v>-0.80211775335400726</v>
       </c>
     </row>
     <row r="760">
@@ -6170,7 +6150,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>-0.80674750386847327</v>
+        <v>-0.80913373410857026</v>
       </c>
     </row>
     <row r="761">
@@ -6178,7 +6158,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>-1.3061003348164515</v>
+        <v>-1.3089946380285209</v>
       </c>
     </row>
     <row r="762">
@@ -6186,7 +6166,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>-1.6341898722261394</v>
+        <v>-1.6369998318105479</v>
       </c>
     </row>
     <row r="763">
@@ -6194,7 +6174,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>-1.7512146451692379</v>
+        <v>-1.7540159911081068</v>
       </c>
     </row>
     <row r="764">
@@ -6202,7 +6182,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>-1.6712604754195959</v>
+        <v>-1.674116362300752</v>
       </c>
     </row>
     <row r="765">
@@ -6210,7 +6190,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>-1.4746814672273718</v>
+        <v>-1.4774639801153653</v>
       </c>
     </row>
     <row r="766">
@@ -6218,7 +6198,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>0.36884648367096179</v>
+        <v>0.36833252504346747</v>
       </c>
     </row>
     <row r="767">
@@ -6226,7 +6206,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>0.26522263297290027</v>
+        <v>0.26436472180599963</v>
       </c>
     </row>
     <row r="768">
@@ -6234,7 +6214,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>0.032209865065550305</v>
+        <v>0.030806266033829646</v>
       </c>
     </row>
     <row r="769">
@@ -6242,7 +6222,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>-0.36718747514049965</v>
+        <v>-0.36946900731725624</v>
       </c>
     </row>
     <row r="770">
@@ -6250,7 +6230,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-0.77738160680037593</v>
+        <v>-0.78015534941647957</v>
       </c>
     </row>
     <row r="771">
@@ -6258,7 +6238,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>-0.78448747771774974</v>
+        <v>-0.78727426566763203</v>
       </c>
     </row>
     <row r="772">
@@ -6266,7 +6246,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>-1.1889991840489702</v>
+        <v>-1.1923254462072008</v>
       </c>
     </row>
     <row r="773">
@@ -6274,7 +6254,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>-1.48840464962846</v>
+        <v>-1.4918086847411656</v>
       </c>
     </row>
     <row r="774">
@@ -6282,7 +6262,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>-1.6220936276433391</v>
+        <v>-1.6255543614936279</v>
       </c>
     </row>
     <row r="775">
@@ -6290,7 +6270,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-1.5684209144725576</v>
+        <v>-1.5718752697724727</v>
       </c>
     </row>
     <row r="776">
@@ -6298,7 +6278,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>0.14298328212481309</v>
+        <v>0.14121589007052851</v>
       </c>
     </row>
     <row r="777">
@@ -6306,7 +6286,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>-0.11527155921569289</v>
+        <v>-0.11772930076715929</v>
       </c>
     </row>
     <row r="778">
@@ -6314,7 +6294,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>-0.44825885452440328</v>
+        <v>-0.45151371342860264</v>
       </c>
     </row>
     <row r="779">
@@ -6322,7 +6302,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>-1.0410653634282805</v>
+        <v>-1.045310513494945</v>
       </c>
     </row>
     <row r="780">
@@ -6330,7 +6310,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>-1.2652185609219382</v>
+        <v>-1.2695086528304291</v>
       </c>
     </row>
     <row r="781">
@@ -6338,7 +6318,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>0.16421184627622593</v>
+        <v>0.16253028462829602</v>
       </c>
     </row>
     <row r="782">
@@ -6346,7 +6326,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>-0.10537503273083539</v>
+        <v>-0.10779583608545451</v>
       </c>
     </row>
     <row r="783">
@@ -6354,7 +6334,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>-0.44402784394653755</v>
+        <v>-0.44726384762788379</v>
       </c>
     </row>
     <row r="784">
@@ -6362,7 +6342,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>-1.02140538090268</v>
+        <v>-1.0255783403084646</v>
       </c>
     </row>
     <row r="785">
@@ -6370,7 +6350,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>-1.2370945863659297</v>
+        <v>-1.2412874190428385</v>
       </c>
     </row>
     <row r="786">
@@ -6378,7 +6358,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>0.59864569058880546</v>
+        <v>0.60208499773948998</v>
       </c>
     </row>
     <row r="787">
@@ -6386,7 +6366,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>0.17591651769468358</v>
+        <v>0.17921207189677033</v>
       </c>
     </row>
     <row r="788">
@@ -6394,7 +6374,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>-0.29745841093549269</v>
+        <v>-0.29387810477163012</v>
       </c>
     </row>
     <row r="789">
@@ -6402,7 +6382,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>-0.29651199132545825</v>
+        <v>-0.29292494792898627</v>
       </c>
     </row>
     <row r="790">
@@ -6410,7 +6390,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>1.2949133736561427</v>
+        <v>1.2965356338795699</v>
       </c>
     </row>
     <row r="791">
@@ -6418,7 +6398,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>0.83377654593088246</v>
+        <v>0.83589095857981865</v>
       </c>
     </row>
     <row r="792">
@@ -6426,7 +6406,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>0.26120440378321941</v>
+        <v>0.26327690512927376</v>
       </c>
     </row>
     <row r="793">
@@ -6434,7 +6414,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>-0.39940688875467456</v>
+        <v>-0.39702783288623811</v>
       </c>
     </row>
     <row r="794">
@@ -6442,7 +6422,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>-0.41124552858911928</v>
+        <v>-0.40892077071713151</v>
       </c>
     </row>
     <row r="795">
@@ -6450,7 +6430,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>-0.93069739749122871</v>
+        <v>-0.92833987244077998</v>
       </c>
     </row>
     <row r="796">
@@ -6458,7 +6438,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>-1.2903507502433809</v>
+        <v>-1.2879166286365866</v>
       </c>
     </row>
     <row r="797">
@@ -6466,7 +6446,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>1.7115574756106191</v>
+        <v>1.7114642942253262</v>
       </c>
     </row>
     <row r="798">
@@ -6474,7 +6454,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>1.5043866530159593</v>
+        <v>1.5047306212853875</v>
       </c>
     </row>
     <row r="799">
@@ -6482,7 +6462,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>0.96861599070035242</v>
+        <v>0.96946927999001931</v>
       </c>
     </row>
     <row r="800">
@@ -6490,7 +6470,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>0.27361887304390708</v>
+        <v>0.27448269347951176</v>
       </c>
     </row>
     <row r="801">
@@ -6498,7 +6478,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>-0.49098070893404089</v>
+        <v>-0.48997009941970165</v>
       </c>
     </row>
     <row r="802">
@@ -6506,7 +6486,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-0.50391179291874766</v>
+        <v>-0.50295756922057022</v>
       </c>
     </row>
     <row r="803">
@@ -6514,7 +6494,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>-1.1102400199490228</v>
+        <v>-1.1094975783143974</v>
       </c>
     </row>
     <row r="804">
@@ -6522,7 +6502,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-1.429045828881367</v>
+        <v>-1.4279787139430171</v>
       </c>
     </row>
     <row r="805">
@@ -6530,7 +6510,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>-1.4879657090503065</v>
+        <v>-1.4863644284067976</v>
       </c>
     </row>
     <row r="806">
@@ -6538,7 +6518,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>1.7032842954319714</v>
+        <v>1.7031775860631611</v>
       </c>
     </row>
     <row r="807">
@@ -6546,7 +6526,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>1.4972602080478206</v>
+        <v>1.4976071702188616</v>
       </c>
     </row>
     <row r="808">
@@ -6554,7 +6534,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>0.95848589899344472</v>
+        <v>0.9593258272937818</v>
       </c>
     </row>
     <row r="809">
@@ -6562,7 +6542,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>0.26454646951192573</v>
+        <v>0.26540035221210057</v>
       </c>
     </row>
     <row r="810">
@@ -6570,7 +6550,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>-0.49440547207297658</v>
+        <v>-0.49338886246807884</v>
       </c>
     </row>
     <row r="811">
@@ -6578,7 +6558,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-0.5078276906484479</v>
+        <v>-0.50687914629374831</v>
       </c>
     </row>
     <row r="812">
@@ -6586,7 +6566,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>-1.1150865602059212</v>
+        <v>-1.1143568621771887</v>
       </c>
     </row>
     <row r="813">
@@ -6594,7 +6574,7 @@
         <v>812</v>
       </c>
       <c r="B813">
-        <v>-1.433918116843339</v>
+        <v>-1.4328604729059227</v>
       </c>
     </row>
     <row r="814">
@@ -6602,7 +6582,7 @@
         <v>813</v>
       </c>
       <c r="B814">
-        <v>-1.4993901361950555</v>
+        <v>-1.4978211565886064</v>
       </c>
     </row>
     <row r="815">
@@ -6610,7 +6590,7 @@
         <v>814</v>
       </c>
       <c r="B815">
-        <v>1.7090750431197006</v>
+        <v>1.7083582841091132</v>
       </c>
     </row>
     <row r="816">
@@ -6618,7 +6598,7 @@
         <v>815</v>
       </c>
       <c r="B816">
-        <v>1.4178996241609241</v>
+        <v>1.417475924564106</v>
       </c>
     </row>
     <row r="817">
@@ -6626,7 +6606,7 @@
         <v>816</v>
       </c>
       <c r="B817">
-        <v>0.8847319003447901</v>
+        <v>0.88468208586092978</v>
       </c>
     </row>
     <row r="818">
@@ -6634,7 +6614,7 @@
         <v>817</v>
       </c>
       <c r="B818">
-        <v>0.18784508384683662</v>
+        <v>0.1877330156262324</v>
       </c>
     </row>
     <row r="819">
@@ -6642,7 +6622,7 @@
         <v>818</v>
       </c>
       <c r="B819">
-        <v>-0.54291474865007661</v>
+        <v>-0.54314261878905767</v>
       </c>
     </row>
     <row r="820">
@@ -6650,7 +6630,7 @@
         <v>819</v>
       </c>
       <c r="B820">
-        <v>-0.55489256498569606</v>
+        <v>-0.55517023188193937</v>
       </c>
     </row>
     <row r="821">
@@ -6658,7 +6638,7 @@
         <v>820</v>
       </c>
       <c r="B821">
-        <v>-1.1555851425916708</v>
+        <v>-1.1560376190332942</v>
       </c>
     </row>
     <row r="822">
@@ -6666,7 +6646,7 @@
         <v>821</v>
       </c>
       <c r="B822">
-        <v>-1.4657711566121963</v>
+        <v>-1.4657598885981364</v>
       </c>
     </row>
     <row r="823">
@@ -6674,7 +6654,7 @@
         <v>822</v>
       </c>
       <c r="B823">
-        <v>-1.5439788454822823</v>
+        <v>-1.5434532080498284</v>
       </c>
     </row>
     <row r="824">
@@ -6682,7 +6662,7 @@
         <v>823</v>
       </c>
       <c r="B824">
-        <v>-1.5600878899498589</v>
+        <v>-1.5590178142169437</v>
       </c>
     </row>
     <row r="825">
@@ -6690,7 +6670,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>1.500903568483152</v>
+        <v>1.500008724486471</v>
       </c>
     </row>
     <row r="826">
@@ -6698,7 +6678,7 @@
         <v>825</v>
       </c>
       <c r="B826">
-        <v>1.1518730366390586</v>
+        <v>1.1508077701235226</v>
       </c>
     </row>
     <row r="827">
@@ -6706,7 +6686,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>0.67523153952481396</v>
+        <v>0.67454715961193423</v>
       </c>
     </row>
     <row r="828">
@@ -6714,7 +6694,7 @@
         <v>827</v>
       </c>
       <c r="B828">
-        <v>0.065157330021490711</v>
+        <v>0.064343338970850733</v>
       </c>
     </row>
     <row r="829">
@@ -6722,7 +6702,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>-0.62697632328745256</v>
+        <v>-0.62797029739221222</v>
       </c>
     </row>
     <row r="830">
@@ -6730,7 +6710,7 @@
         <v>829</v>
       </c>
       <c r="B830">
-        <v>-0.63595823739041302</v>
+        <v>-0.63698603643058382</v>
       </c>
     </row>
     <row r="831">
@@ -6738,7 +6718,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>-1.2273418915474164</v>
+        <v>-1.2285849667227735</v>
       </c>
     </row>
     <row r="832">
@@ -6746,7 +6726,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>-1.5574727804867259</v>
+        <v>-1.5583739430933896</v>
       </c>
     </row>
     <row r="833">
@@ -6754,7 +6734,7 @@
         <v>832</v>
       </c>
       <c r="B833">
-        <v>-1.6660441288989234</v>
+        <v>-1.6664878516294099</v>
       </c>
     </row>
     <row r="834">
@@ -6762,7 +6742,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>-1.6722827763190669</v>
+        <v>-1.6722959252963827</v>
       </c>
     </row>
     <row r="835">
@@ -6770,7 +6750,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>1.1316655190092313</v>
+        <v>1.1309362792019739</v>
       </c>
     </row>
     <row r="836">
@@ -6778,7 +6758,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>0.83956441721698927</v>
+        <v>0.83881281917952644</v>
       </c>
     </row>
     <row r="837">
@@ -6786,7 +6766,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>0.42176892731222343</v>
+        <v>0.42090830876963509</v>
       </c>
     </row>
     <row r="838">
@@ -6794,7 +6774,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>-0.10037666877238637</v>
+        <v>-0.10146509757896104</v>
       </c>
     </row>
     <row r="839">
@@ -6802,7 +6782,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>-0.69891570507803635</v>
+        <v>-0.70022996758897693</v>
       </c>
     </row>
     <row r="840">
@@ -6810,7 +6790,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>-0.70602498540125047</v>
+        <v>-0.70736667707606637</v>
       </c>
     </row>
     <row r="841">
@@ -6818,7 +6798,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-1.3437839062734627</v>
+        <v>-1.3454946672903645</v>
       </c>
     </row>
     <row r="842">
@@ -6826,7 +6806,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>-1.6853410360194312</v>
+        <v>-1.6868122505556791</v>
       </c>
     </row>
     <row r="843">
@@ -6834,7 +6814,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>-1.752836323625899</v>
+        <v>-1.7537505098415953</v>
       </c>
     </row>
     <row r="844">
@@ -6842,7 +6822,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>-1.7159231923058371</v>
+        <v>-1.7166369973220394</v>
       </c>
     </row>
     <row r="845">
@@ -6850,7 +6830,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>0.77593962447008014</v>
+        <v>0.775541943731481</v>
       </c>
     </row>
     <row r="846">
@@ -6858,7 +6838,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>0.52854956245541662</v>
+        <v>0.52815544063487252</v>
       </c>
     </row>
     <row r="847">
@@ -6866,7 +6846,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>0.19000793660135087</v>
+        <v>0.18947188372019705</v>
       </c>
     </row>
     <row r="848">
@@ -6874,7 +6854,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>-0.25259166228085311</v>
+        <v>-0.25366712464040292</v>
       </c>
     </row>
     <row r="849">
@@ -6882,7 +6862,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>-0.76561000254684897</v>
+        <v>-0.76697108364940414</v>
       </c>
     </row>
     <row r="850">
@@ -6890,7 +6870,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>-0.77269423995629427</v>
+        <v>-0.774077815207041</v>
       </c>
     </row>
     <row r="851">
@@ -6898,7 +6878,7 @@
         <v>850</v>
       </c>
       <c r="B851">
-        <v>-1.2892273914656105</v>
+        <v>-1.2909539864733661</v>
       </c>
     </row>
     <row r="852">
@@ -6906,7 +6886,7 @@
         <v>851</v>
       </c>
       <c r="B852">
-        <v>-1.6308135785358857</v>
+        <v>-1.632309270161088</v>
       </c>
     </row>
     <row r="853">
@@ -6914,7 +6894,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-1.738634125469916</v>
+        <v>-1.7399501357976035</v>
       </c>
     </row>
     <row r="854">
@@ -6922,7 +6902,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>-1.6962394322090848</v>
+        <v>-1.6975276581698271</v>
       </c>
     </row>
     <row r="855">
@@ -6930,7 +6910,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>0.51034072204614256</v>
+        <v>0.51025965526882122</v>
       </c>
     </row>
     <row r="856">
@@ -6938,7 +6918,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>0.33276272799515699</v>
+        <v>0.33244537293675097</v>
       </c>
     </row>
     <row r="857">
@@ -6946,7 +6926,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>0.049652293170653394</v>
+        <v>0.048995054080375022</v>
       </c>
     </row>
     <row r="858">
@@ -6954,7 +6934,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>-0.34018177713784081</v>
+        <v>-0.34138627694603635</v>
       </c>
     </row>
     <row r="859">
@@ -6962,7 +6942,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>-0.79017660787914112</v>
+        <v>-0.79186848483471839</v>
       </c>
     </row>
     <row r="860">
@@ -6970,7 +6950,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>-0.79069358837780002</v>
+        <v>-0.79238507232289235</v>
       </c>
     </row>
     <row r="861">
@@ -6978,7 +6958,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>-1.2244957727411931</v>
+        <v>-1.2266052638836227</v>
       </c>
     </row>
     <row r="862">
@@ -6986,7 +6966,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-1.5121279777497805</v>
+        <v>-1.5140578413596224</v>
       </c>
     </row>
     <row r="863">
@@ -6994,7 +6974,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-1.6188302594088619</v>
+        <v>-1.6207290426750474</v>
       </c>
     </row>
     <row r="864">
@@ -7002,7 +6982,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>-1.5699970567918096</v>
+        <v>-1.5719954667685256</v>
       </c>
     </row>
     <row r="865">
@@ -7010,7 +6990,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>0.3243604176382715</v>
+        <v>0.32395933164779661</v>
       </c>
     </row>
     <row r="866">
@@ -7018,7 +6998,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>0.17208173087837139</v>
+        <v>0.17141888842562067</v>
       </c>
     </row>
     <row r="867">
@@ -7026,7 +7006,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>-0.042521191458190603</v>
+        <v>-0.043793617395583094</v>
       </c>
     </row>
     <row r="868">
@@ -7034,7 +7014,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>-0.39656727762211869</v>
+        <v>-0.39843263293781694</v>
       </c>
     </row>
     <row r="869">
@@ -7042,7 +7022,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>-0.75000766536084551</v>
+        <v>-0.75225196524707227</v>
       </c>
     </row>
     <row r="870">
@@ -7050,7 +7030,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-0.75061375047043311</v>
+        <v>-0.75285971115871686</v>
       </c>
     </row>
     <row r="871">
@@ -7058,7 +7038,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>-1.0662635579078863</v>
+        <v>-1.0686553642264096</v>
       </c>
     </row>
     <row r="872">
@@ -7066,7 +7046,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>-1.2869118318205901</v>
+        <v>-1.2892709877608757</v>
       </c>
     </row>
     <row r="873">
@@ -7074,7 +7054,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>-1.4072117094004981</v>
+        <v>-1.4096035811782288</v>
       </c>
     </row>
     <row r="874">
@@ -7082,7 +7062,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-1.4266212723406277</v>
+        <v>-1.4290301864707036</v>
       </c>
     </row>
     <row r="875">
@@ -7090,7 +7070,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>-0.027344797466525454</v>
+        <v>-0.024988588729374935</v>
       </c>
     </row>
     <row r="876">
@@ -7098,7 +7078,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>-0.50252469493306906</v>
+        <v>-0.50040689320092135</v>
       </c>
     </row>
     <row r="877">
@@ -7106,7 +7086,7 @@
         <v>876</v>
       </c>
       <c r="B877">
-        <v>-0.51776459021570487</v>
+        <v>-0.51570820522769378</v>
       </c>
     </row>
     <row r="878">
@@ -7114,7 +7094,7 @@
         <v>877</v>
       </c>
       <c r="B878">
-        <v>-1.0134787855044405</v>
+        <v>-1.0118325330614995</v>
       </c>
     </row>
     <row r="879">
@@ -7122,7 +7102,7 @@
         <v>878</v>
       </c>
       <c r="B879">
-        <v>0.48412213041687785</v>
+        <v>0.48629101082431914</v>
       </c>
     </row>
     <row r="880">
@@ -7130,7 +7110,7 @@
         <v>879</v>
       </c>
       <c r="B880">
-        <v>-0.029167448074315268</v>
+        <v>-0.026810732933162534</v>
       </c>
     </row>
     <row r="881">
@@ -7138,7 +7118,7 @@
         <v>880</v>
       </c>
       <c r="B881">
-        <v>-0.50748843446447722</v>
+        <v>-0.50537722819577269</v>
       </c>
     </row>
     <row r="882">
@@ -7146,7 +7126,7 @@
         <v>881</v>
       </c>
       <c r="B882">
-        <v>-0.5178035370087094</v>
+        <v>-0.51573744577368463</v>
       </c>
     </row>
     <row r="883">
@@ -7154,7 +7134,7 @@
         <v>882</v>
       </c>
       <c r="B883">
-        <v>-1.0167781447795876</v>
+        <v>-1.0151391537561227</v>
       </c>
     </row>
     <row r="884">
@@ -7162,7 +7142,7 @@
         <v>883</v>
       </c>
       <c r="B884">
-        <v>-1.3581160865415469</v>
+        <v>-1.356576101536195</v>
       </c>
     </row>
     <row r="885">
@@ -7170,7 +7150,7 @@
         <v>884</v>
       </c>
       <c r="B885">
-        <v>0.98746687362724905</v>
+        <v>0.98804992325912133</v>
       </c>
     </row>
     <row r="886">
@@ -7178,7 +7158,7 @@
         <v>885</v>
       </c>
       <c r="B886">
-        <v>0.51546812605745562</v>
+        <v>0.51654223248172926</v>
       </c>
     </row>
     <row r="887">
@@ -7186,7 +7166,7 @@
         <v>886</v>
       </c>
       <c r="B887">
-        <v>-0.0031933812236889614</v>
+        <v>-0.0017502910582245877</v>
       </c>
     </row>
     <row r="888">
@@ -7194,7 +7174,7 @@
         <v>887</v>
       </c>
       <c r="B888">
-        <v>-0.51963326648364705</v>
+        <v>-0.51854213874832589</v>
       </c>
     </row>
     <row r="889">
@@ -7202,7 +7182,7 @@
         <v>888</v>
       </c>
       <c r="B889">
-        <v>-0.53105091660777204</v>
+        <v>-0.53000244417115483</v>
       </c>
     </row>
     <row r="890">
@@ -7210,7 +7190,7 @@
         <v>889</v>
       </c>
       <c r="B890">
-        <v>-1.0417730129063352</v>
+        <v>-1.0412173308092698</v>
       </c>
     </row>
     <row r="891">
@@ -7218,7 +7198,7 @@
         <v>890</v>
       </c>
       <c r="B891">
-        <v>-1.3776450164797733</v>
+        <v>-1.3769457326904886</v>
       </c>
     </row>
     <row r="892">
@@ -7226,7 +7206,7 @@
         <v>891</v>
       </c>
       <c r="B892">
-        <v>1.1613281618833067</v>
+        <v>1.1610499715303764</v>
       </c>
     </row>
     <row r="893">
@@ -7234,7 +7214,7 @@
         <v>892</v>
       </c>
       <c r="B893">
-        <v>0.84061741339614171</v>
+        <v>0.84056929165047167</v>
       </c>
     </row>
     <row r="894">
@@ -7242,7 +7222,7 @@
         <v>893</v>
       </c>
       <c r="B894">
-        <v>0.41311267041980809</v>
+        <v>0.41360615126989941</v>
       </c>
     </row>
     <row r="895">
@@ -7250,7 +7230,7 @@
         <v>894</v>
       </c>
       <c r="B895">
-        <v>-0.044007955939985195</v>
+        <v>-0.043251127205529427</v>
       </c>
     </row>
     <row r="896">
@@ -7258,7 +7238,7 @@
         <v>895</v>
       </c>
       <c r="B896">
-        <v>-0.53467414606180241</v>
+        <v>-0.53417192321228757</v>
       </c>
     </row>
     <row r="897">
@@ -7266,7 +7246,7 @@
         <v>896</v>
       </c>
       <c r="B897">
-        <v>-0.54288777453061743</v>
+        <v>-0.54241607637810352</v>
       </c>
     </row>
     <row r="898">
@@ -7274,7 +7254,7 @@
         <v>897</v>
       </c>
       <c r="B898">
-        <v>-1.0696854078914981</v>
+        <v>-1.0696199262555874</v>
       </c>
     </row>
     <row r="899">
@@ -7282,7 +7262,7 @@
         <v>898</v>
       </c>
       <c r="B899">
-        <v>-1.4206281755230754</v>
+        <v>-1.4205304603020081</v>
       </c>
     </row>
     <row r="900">
@@ -7290,7 +7270,7 @@
         <v>899</v>
       </c>
       <c r="B900">
-        <v>0.93819224410923285</v>
+        <v>0.93797776615391248</v>
       </c>
     </row>
     <row r="901">
@@ -7298,7 +7278,7 @@
         <v>900</v>
       </c>
       <c r="B901">
-        <v>0.67056568248290616</v>
+        <v>0.67056062096010249</v>
       </c>
     </row>
     <row r="902">
@@ -7306,7 +7286,7 @@
         <v>901</v>
       </c>
       <c r="B902">
-        <v>0.31549141295479538</v>
+        <v>0.31580643963456634</v>
       </c>
     </row>
     <row r="903">
@@ -7314,7 +7294,7 @@
         <v>902</v>
       </c>
       <c r="B903">
-        <v>-0.098011351740791133</v>
+        <v>-0.097787732610505107</v>
       </c>
     </row>
     <row r="904">
@@ -7322,7 +7302,7 @@
         <v>903</v>
       </c>
       <c r="B904">
-        <v>-0.56830999803012872</v>
+        <v>-0.56806270862964114</v>
       </c>
     </row>
     <row r="905">
@@ -7330,7 +7310,7 @@
         <v>904</v>
       </c>
       <c r="B905">
-        <v>-0.57439592655024452</v>
+        <v>-0.57417239187612323</v>
       </c>
     </row>
     <row r="906">
@@ -7338,7 +7318,7 @@
         <v>905</v>
       </c>
       <c r="B906">
-        <v>-1.1000014620421805</v>
+        <v>-1.0998434451746824</v>
       </c>
     </row>
     <row r="907">
@@ -7346,7 +7326,7 @@
         <v>906</v>
       </c>
       <c r="B907">
-        <v>-1.4703932201268788</v>
+        <v>-1.4703935803079402</v>
       </c>
     </row>
     <row r="908">
@@ -7354,7 +7334,7 @@
         <v>907</v>
       </c>
       <c r="B908">
-        <v>0.64599903921689217</v>
+        <v>0.6459536809814197</v>
       </c>
     </row>
     <row r="909">
@@ -7362,7 +7342,7 @@
         <v>908</v>
       </c>
       <c r="B909">
-        <v>0.41137790625606913</v>
+        <v>0.41169101226997912</v>
       </c>
     </row>
     <row r="910">
@@ -7370,7 +7350,7 @@
         <v>909</v>
       </c>
       <c r="B910">
-        <v>0.13478053757253244</v>
+        <v>0.13496581746466299</v>
       </c>
     </row>
     <row r="911">
@@ -7378,7 +7358,7 @@
         <v>910</v>
       </c>
       <c r="B911">
-        <v>-0.20128146682876522</v>
+        <v>-0.20112611114480447</v>
       </c>
     </row>
     <row r="912">
@@ -7386,7 +7366,7 @@
         <v>911</v>
       </c>
       <c r="B912">
-        <v>-0.60371340484549885</v>
+        <v>-0.60374378743669654</v>
       </c>
     </row>
     <row r="913">
@@ -7394,7 +7374,7 @@
         <v>912</v>
       </c>
       <c r="B913">
-        <v>-0.60488637518394528</v>
+        <v>-0.60492474573594968</v>
       </c>
     </row>
     <row r="914">
@@ -7402,7 +7382,7 @@
         <v>913</v>
       </c>
       <c r="B914">
-        <v>-1.0296444728386513</v>
+        <v>-1.0297923248957912</v>
       </c>
     </row>
     <row r="915">
@@ -7410,7 +7390,7 @@
         <v>914</v>
       </c>
       <c r="B915">
-        <v>-1.37367267198813</v>
+        <v>-1.3739803591142352</v>
       </c>
     </row>
     <row r="916">
@@ -7418,7 +7398,7 @@
         <v>915</v>
       </c>
       <c r="B916">
-        <v>-1.51872270905028</v>
+        <v>-1.5188709592226772</v>
       </c>
     </row>
     <row r="917">
@@ -7426,7 +7406,7 @@
         <v>916</v>
       </c>
       <c r="B917">
-        <v>0.024188576403800094</v>
+        <v>0.024120041707220125</v>
       </c>
     </row>
     <row r="918">
@@ -7434,7 +7414,7 @@
         <v>917</v>
       </c>
       <c r="B918">
-        <v>-0.26886071518587024</v>
+        <v>-0.26916924876858861</v>
       </c>
     </row>
     <row r="919">
@@ -7442,7 +7422,7 @@
         <v>918</v>
       </c>
       <c r="B919">
-        <v>-0.61465289905540665</v>
+        <v>-0.61511265209209554</v>
       </c>
     </row>
     <row r="920">
@@ -7450,7 +7430,7 @@
         <v>919</v>
       </c>
       <c r="B920">
-        <v>-0.61216668121154583</v>
+        <v>-0.61262189731390704</v>
       </c>
     </row>
     <row r="921">
@@ -7458,7 +7438,7 @@
         <v>920</v>
       </c>
       <c r="B921">
-        <v>-0.92961337079603523</v>
+        <v>-0.93027077567304384</v>
       </c>
     </row>
     <row r="922">
@@ -7466,7 +7446,7 @@
         <v>921</v>
       </c>
       <c r="B922">
-        <v>-1.2118795555131336</v>
+        <v>-1.2125393568727509</v>
       </c>
     </row>
   </sheetData>
